--- a/BOM Testapparaat.xlsx
+++ b/BOM Testapparaat.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="150">
   <si>
     <t xml:space="preserve">Testapparaat APPS</t>
   </si>
@@ -115,27 +115,6 @@
     <t xml:space="preserve">MOUSER</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MOUSER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, DIGIKEY</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Ker. Condensator 100n</t>
   </si>
   <si>
@@ -220,18 +199,18 @@
     <t xml:space="preserve">Pinheader voor externe FB modules</t>
   </si>
   <si>
+    <t xml:space="preserve">2,54mm pitch, 2 rijen 24 posities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinheader 02x06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinheader voor debug probe</t>
+  </si>
+  <si>
     <t xml:space="preserve">2,54mm pitch, 2 rijen 12 posities</t>
   </si>
   <si>
-    <t xml:space="preserve">Pinheader 02x06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinheader voor debug probe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,54mm pitch, 2 rijen 6 posities</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pinheader 01x04</t>
   </si>
   <si>
@@ -256,7 +235,7 @@
     <t xml:space="preserve">Pinheader voor display shield</t>
   </si>
   <si>
-    <t xml:space="preserve">2,54mm pitch, 2 rijen 13 posities</t>
+    <t xml:space="preserve">2,54mm pitch, 2 rijen 26 posities</t>
   </si>
   <si>
     <t xml:space="preserve">Pinheader 02x08</t>
@@ -265,7 +244,7 @@
     <t xml:space="preserve">Pinheader voor knoppen en rotary encoder</t>
   </si>
   <si>
-    <t xml:space="preserve">2,54mm pitch, 2 rijen 8 posities</t>
+    <t xml:space="preserve">2,54mm pitch, 2 rijen 16 posities</t>
   </si>
   <si>
     <t xml:space="preserve">Pinheader 01x08</t>
@@ -343,7 +322,7 @@
     <t xml:space="preserve">3,3uH SMD</t>
   </si>
   <si>
-    <t xml:space="preserve">LMR50410YFQDBVRQ1</t>
+    <t xml:space="preserve">TPS56428RHLR</t>
   </si>
   <si>
     <t xml:space="preserve">dc/dc regulator ic (adj)</t>
@@ -400,9 +379,6 @@
     <t xml:space="preserve">91k, SMD</t>
   </si>
   <si>
-    <t xml:space="preserve">MOUSER, DIGIKEY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Weerstand 43k</t>
   </si>
   <si>
@@ -421,7 +397,7 @@
     <t xml:space="preserve">Weerstand 1%</t>
   </si>
   <si>
-    <t xml:space="preserve">220, SMD</t>
+    <t xml:space="preserve">220R, SMD</t>
   </si>
   <si>
     <t xml:space="preserve">SPST Drukknop</t>
@@ -482,6 +458,15 @@
   </si>
   <si>
     <t xml:space="preserve">SMD, 2-ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapter 15V 1,6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voedingsadapter voor opladen accu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
   </si>
   <si>
     <t xml:space="preserve">Subtotaal:</t>
@@ -500,7 +485,7 @@
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="167" formatCode="_ &quot;€ &quot;* #,##0.00_ ;_ &quot;€ &quot;* \-#,##0.00_ ;_ &quot;€ &quot;* \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -555,6 +540,13 @@
     <font>
       <sz val="8"/>
       <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
@@ -843,56 +835,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -928,7 +920,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -936,75 +928,75 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1028,7 +1020,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1052,39 +1044,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1161,14 +1157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:R164"/>
+  <dimension ref="A1:R165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R59" activeCellId="0" sqref="R59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D15" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I38" activeCellId="0" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1513,7 +1509,7 @@
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="43" t="n">
@@ -1533,15 +1529,15 @@
     </row>
     <row r="15" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="49" t="s">
@@ -1549,7 +1545,7 @@
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="49" t="n">
@@ -1569,15 +1565,15 @@
     </row>
     <row r="16" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="49" t="s">
@@ -1585,7 +1581,7 @@
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="49" t="n">
@@ -1605,15 +1601,15 @@
     </row>
     <row r="17" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="49" t="s">
@@ -1621,7 +1617,7 @@
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="49" t="n">
@@ -1641,15 +1637,15 @@
     </row>
     <row r="18" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="49" t="s">
@@ -1657,7 +1653,7 @@
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="49" t="n">
@@ -1677,15 +1673,15 @@
     </row>
     <row r="19" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="49" t="s">
@@ -1693,7 +1689,7 @@
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="49" t="n">
@@ -1713,15 +1709,15 @@
     </row>
     <row r="20" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="49" t="s">
@@ -1729,7 +1725,7 @@
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="49" t="n">
@@ -1749,15 +1745,15 @@
     </row>
     <row r="21" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="49" t="s">
@@ -1765,7 +1761,7 @@
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="49" t="n">
@@ -1785,15 +1781,15 @@
     </row>
     <row r="22" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="49"/>
@@ -1815,22 +1811,24 @@
     </row>
     <row r="23" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
+      <c r="I23" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J23" s="12"/>
       <c r="K23" s="49" t="n">
         <v>1</v>
@@ -1838,24 +1836,26 @@
       <c r="L23" s="12"/>
       <c r="M23" s="49"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="45"/>
+      <c r="O23" s="45" t="n">
+        <v>0.21</v>
+      </c>
       <c r="P23" s="25"/>
       <c r="Q23" s="46" t="n">
         <f aca="false">K23*O23</f>
-        <v>0</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="49" t="s">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="49" t="n">
@@ -1883,15 +1883,15 @@
     </row>
     <row r="25" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="49" t="s">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="H25" s="49"/>
       <c r="I25" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="49" t="n">
@@ -1919,22 +1919,24 @@
     </row>
     <row r="26" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
+      <c r="I26" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J26" s="12"/>
       <c r="K26" s="49" t="n">
         <v>2</v>
@@ -1942,31 +1944,35 @@
       <c r="L26" s="12"/>
       <c r="M26" s="49"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="45"/>
+      <c r="O26" s="45" t="n">
+        <v>0.14</v>
+      </c>
       <c r="P26" s="25"/>
       <c r="Q26" s="46" t="n">
         <f aca="false">K26*O26</f>
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
+      <c r="I27" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J27" s="12"/>
       <c r="K27" s="49" t="n">
         <v>1</v>
@@ -1974,31 +1980,35 @@
       <c r="L27" s="12"/>
       <c r="M27" s="49"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="45"/>
+      <c r="O27" s="45" t="n">
+        <v>0.17</v>
+      </c>
       <c r="P27" s="25"/>
       <c r="Q27" s="46" t="n">
         <f aca="false">K27*O27</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
+      <c r="I28" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J28" s="12"/>
       <c r="K28" s="49" t="n">
         <v>1</v>
@@ -2006,31 +2016,35 @@
       <c r="L28" s="12"/>
       <c r="M28" s="49"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="45"/>
+      <c r="O28" s="45" t="n">
+        <v>1.38</v>
+      </c>
       <c r="P28" s="25"/>
       <c r="Q28" s="46" t="n">
         <f aca="false">K28*O28</f>
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
+      <c r="I29" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J29" s="12"/>
       <c r="K29" s="49" t="n">
         <v>1</v>
@@ -2038,31 +2052,35 @@
       <c r="L29" s="12"/>
       <c r="M29" s="49"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="45"/>
+      <c r="O29" s="45" t="n">
+        <v>0.52</v>
+      </c>
       <c r="P29" s="25"/>
       <c r="Q29" s="46" t="n">
         <f aca="false">K29*O29</f>
-        <v>0</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
+      <c r="I30" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J30" s="12"/>
       <c r="K30" s="49" t="n">
         <v>1</v>
@@ -2070,28 +2088,30 @@
       <c r="L30" s="12"/>
       <c r="M30" s="49"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="45"/>
+      <c r="O30" s="45" t="n">
+        <v>0.27</v>
+      </c>
       <c r="P30" s="25"/>
       <c r="Q30" s="46" t="n">
         <f aca="false">K30*O30</f>
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="49"/>
       <c r="I31" s="49"/>
@@ -2111,15 +2131,15 @@
     </row>
     <row r="32" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="49" t="s">
@@ -2127,7 +2147,7 @@
       </c>
       <c r="H32" s="49"/>
       <c r="I32" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="49" t="n">
@@ -2147,15 +2167,15 @@
     </row>
     <row r="33" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="49" t="s">
@@ -2163,7 +2183,7 @@
       </c>
       <c r="H33" s="49"/>
       <c r="I33" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="49" t="n">
@@ -2183,15 +2203,15 @@
     </row>
     <row r="34" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="49" t="s">
@@ -2199,7 +2219,7 @@
       </c>
       <c r="H34" s="49"/>
       <c r="I34" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="49" t="n">
@@ -2219,15 +2239,15 @@
     </row>
     <row r="35" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="49" t="s">
@@ -2251,15 +2271,15 @@
     </row>
     <row r="36" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="49" t="s">
@@ -2283,15 +2303,15 @@
     </row>
     <row r="37" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="49" t="s">
@@ -2315,22 +2335,24 @@
     </row>
     <row r="38" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
+      <c r="I38" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J38" s="12"/>
       <c r="K38" s="49" t="n">
         <v>2</v>
@@ -2338,31 +2360,35 @@
       <c r="L38" s="12"/>
       <c r="M38" s="49"/>
       <c r="N38" s="12"/>
-      <c r="O38" s="45"/>
+      <c r="O38" s="45" t="n">
+        <v>1.63</v>
+      </c>
       <c r="P38" s="25"/>
       <c r="Q38" s="46" t="n">
         <f aca="false">K38*O38</f>
-        <v>0</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
+      <c r="I39" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J39" s="12"/>
       <c r="K39" s="49" t="n">
         <v>3</v>
@@ -2370,31 +2396,35 @@
       <c r="L39" s="12"/>
       <c r="M39" s="49"/>
       <c r="N39" s="12"/>
-      <c r="O39" s="45"/>
+      <c r="O39" s="45" t="n">
+        <v>0.17</v>
+      </c>
       <c r="P39" s="25"/>
       <c r="Q39" s="46" t="n">
         <f aca="false">K39*O39</f>
-        <v>0</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
+      <c r="I40" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J40" s="12"/>
       <c r="K40" s="49" t="n">
         <v>3</v>
@@ -2402,31 +2432,35 @@
       <c r="L40" s="12"/>
       <c r="M40" s="49"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="45"/>
+      <c r="O40" s="45" t="n">
+        <v>1.04</v>
+      </c>
       <c r="P40" s="25"/>
       <c r="Q40" s="46" t="n">
         <f aca="false">K40*O40</f>
-        <v>0</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
+      <c r="I41" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J41" s="12"/>
       <c r="K41" s="49" t="n">
         <v>3</v>
@@ -2434,31 +2468,35 @@
       <c r="L41" s="12"/>
       <c r="M41" s="49"/>
       <c r="N41" s="12"/>
-      <c r="O41" s="45"/>
+      <c r="O41" s="45" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P41" s="25"/>
       <c r="Q41" s="46" t="n">
         <f aca="false">K41*O41</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
+      <c r="I42" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J42" s="12"/>
       <c r="K42" s="49" t="n">
         <v>18</v>
@@ -2466,24 +2504,26 @@
       <c r="L42" s="12"/>
       <c r="M42" s="49"/>
       <c r="N42" s="12"/>
-      <c r="O42" s="45"/>
+      <c r="O42" s="45" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P42" s="25"/>
       <c r="Q42" s="46" t="n">
         <f aca="false">K42*O42</f>
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="49" t="s">
@@ -2491,7 +2531,7 @@
       </c>
       <c r="H43" s="49"/>
       <c r="I43" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="49" t="n">
@@ -2511,15 +2551,15 @@
     </row>
     <row r="44" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="49" t="s">
@@ -2527,7 +2567,7 @@
       </c>
       <c r="H44" s="49"/>
       <c r="I44" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="49" t="n">
@@ -2547,23 +2587,23 @@
     </row>
     <row r="45" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="49"/>
-      <c r="I45" s="49" t="s">
-        <v>119</v>
+      <c r="I45" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="49" t="n">
@@ -2572,32 +2612,34 @@
       <c r="L45" s="12"/>
       <c r="M45" s="49"/>
       <c r="N45" s="12"/>
-      <c r="O45" s="45"/>
+      <c r="O45" s="45" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P45" s="25"/>
       <c r="Q45" s="46" t="n">
         <f aca="false">K45*O45</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H46" s="49"/>
-      <c r="I46" s="49" t="s">
-        <v>119</v>
+      <c r="I46" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="49" t="n">
@@ -2606,32 +2648,34 @@
       <c r="L46" s="12"/>
       <c r="M46" s="49"/>
       <c r="N46" s="12"/>
-      <c r="O46" s="45"/>
+      <c r="O46" s="45" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P46" s="25"/>
       <c r="Q46" s="46" t="n">
         <f aca="false">K46*O46</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H47" s="49"/>
-      <c r="I47" s="49" t="s">
-        <v>119</v>
+      <c r="I47" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="49" t="n">
@@ -2640,32 +2684,34 @@
       <c r="L47" s="12"/>
       <c r="M47" s="49"/>
       <c r="N47" s="12"/>
-      <c r="O47" s="45"/>
+      <c r="O47" s="45" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P47" s="25"/>
       <c r="Q47" s="46" t="n">
         <f aca="false">K47*O47</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H48" s="49"/>
-      <c r="I48" s="49" t="s">
-        <v>119</v>
+      <c r="I48" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="49" t="n">
@@ -2674,24 +2720,26 @@
       <c r="L48" s="12"/>
       <c r="M48" s="49"/>
       <c r="N48" s="12"/>
-      <c r="O48" s="45"/>
+      <c r="O48" s="45" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P48" s="25"/>
       <c r="Q48" s="46" t="n">
         <f aca="false">K48*O48</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="49" t="s">
@@ -2699,7 +2747,7 @@
       </c>
       <c r="H49" s="49"/>
       <c r="I49" s="49" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="49" t="n">
@@ -2717,15 +2765,15 @@
     </row>
     <row r="50" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="49" t="s">
@@ -2749,22 +2797,24 @@
     </row>
     <row r="51" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
+      <c r="I51" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J51" s="12"/>
       <c r="K51" s="49" t="n">
         <v>2</v>
@@ -2781,22 +2831,24 @@
     </row>
     <row r="52" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
+      <c r="I52" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J52" s="12"/>
       <c r="K52" s="49" t="n">
         <v>1</v>
@@ -2813,22 +2865,24 @@
     </row>
     <row r="53" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
+      <c r="I53" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J53" s="12"/>
       <c r="K53" s="49" t="n">
         <v>2</v>
@@ -2836,31 +2890,35 @@
       <c r="L53" s="12"/>
       <c r="M53" s="49"/>
       <c r="N53" s="12"/>
-      <c r="O53" s="45"/>
+      <c r="O53" s="45" t="n">
+        <v>1.44</v>
+      </c>
       <c r="P53" s="25"/>
       <c r="Q53" s="46" t="n">
         <f aca="false">K53*O53</f>
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
+      <c r="I54" s="50" t="s">
+        <v>29</v>
+      </c>
       <c r="J54" s="12"/>
       <c r="K54" s="49" t="n">
         <v>3</v>
@@ -2877,15 +2935,15 @@
     </row>
     <row r="55" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="49" t="s">
@@ -2893,7 +2951,7 @@
       </c>
       <c r="H55" s="49"/>
       <c r="I55" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="49" t="n">
@@ -2911,54 +2969,85 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="53"/>
-      <c r="O56" s="54" t="s">
+    <row r="56" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="56" t="n">
-        <f aca="false">SUM(Q14:Q55)</f>
-        <v>13.58</v>
+      <c r="H56" s="49"/>
+      <c r="I56" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="J56" s="12"/>
+      <c r="K56" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="12"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="51" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="51" t="n">
+        <f aca="false">K56*O56</f>
+        <v>15.75</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q57" s="57"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="54"/>
+      <c r="O57" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="57" t="n">
+        <f aca="false">SUM(Q14:Q56)</f>
+        <v>44.63</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="60" t="n">
-        <f aca="false">Q56</f>
-        <v>13.58</v>
-      </c>
-      <c r="R58" s="2"/>
+      <c r="Q58" s="58"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q59" s="1"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="61" t="n">
+        <f aca="false">Q57</f>
+        <v>44.63</v>
+      </c>
+      <c r="R59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q60" s="1"/>
@@ -3274,6 +3363,9 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q164" s="1"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q165" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3291,14 +3383,34 @@
     <hyperlink ref="I19" r:id="rId6" display="MOUSER"/>
     <hyperlink ref="I20" r:id="rId7" display="MOUSER"/>
     <hyperlink ref="I21" r:id="rId8" display="MOUSER"/>
-    <hyperlink ref="I24" r:id="rId9" display="MOUSER"/>
-    <hyperlink ref="I25" r:id="rId10" display="MOUSER"/>
-    <hyperlink ref="I32" r:id="rId11" display="MOUSER"/>
-    <hyperlink ref="I33" r:id="rId12" display="MOUSER"/>
-    <hyperlink ref="I34" r:id="rId13" display="MOUSER"/>
-    <hyperlink ref="I43" r:id="rId14" display="MOUSER"/>
-    <hyperlink ref="I44" r:id="rId15" display="MOUSER"/>
-    <hyperlink ref="I55" r:id="rId16" display="MOUSER"/>
+    <hyperlink ref="I23" r:id="rId9" display="MOUSER"/>
+    <hyperlink ref="I24" r:id="rId10" display="MOUSER"/>
+    <hyperlink ref="I25" r:id="rId11" display="MOUSER"/>
+    <hyperlink ref="I26" r:id="rId12" display="MOUSER"/>
+    <hyperlink ref="I27" r:id="rId13" display="MOUSER"/>
+    <hyperlink ref="I28" r:id="rId14" display="MOUSER"/>
+    <hyperlink ref="I29" r:id="rId15" display="MOUSER"/>
+    <hyperlink ref="I30" r:id="rId16" display="MOUSER"/>
+    <hyperlink ref="I32" r:id="rId17" display="MOUSER"/>
+    <hyperlink ref="I33" r:id="rId18" display="MOUSER"/>
+    <hyperlink ref="I34" r:id="rId19" display="MOUSER"/>
+    <hyperlink ref="I38" r:id="rId20" display="MOUSER"/>
+    <hyperlink ref="I39" r:id="rId21" display="MOUSER"/>
+    <hyperlink ref="I40" r:id="rId22" display="MOUSER"/>
+    <hyperlink ref="I41" r:id="rId23" display="MOUSER"/>
+    <hyperlink ref="I42" r:id="rId24" display="MOUSER"/>
+    <hyperlink ref="I43" r:id="rId25" display="MOUSER"/>
+    <hyperlink ref="I44" r:id="rId26" display="MOUSER"/>
+    <hyperlink ref="I45" r:id="rId27" display="MOUSER"/>
+    <hyperlink ref="I46" r:id="rId28" display="MOUSER"/>
+    <hyperlink ref="I47" r:id="rId29" display="MOUSER"/>
+    <hyperlink ref="I48" r:id="rId30" display="MOUSER"/>
+    <hyperlink ref="I51" r:id="rId31" display="MOUSER"/>
+    <hyperlink ref="I52" r:id="rId32" display="MOUSER"/>
+    <hyperlink ref="I53" r:id="rId33" display="MOUSER"/>
+    <hyperlink ref="I54" r:id="rId34" display="MOUSER"/>
+    <hyperlink ref="I55" r:id="rId35" display="MOUSER"/>
+    <hyperlink ref="I56" r:id="rId36" display="RS"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.511811023622047" footer="0.511811023622047"/>

--- a/BOM Testapparaat.xlsx
+++ b/BOM Testapparaat.xlsx
@@ -9,9 +9,10 @@
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Manuren" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">BOM!$A$1:$Q$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">BOM!$A$1:$X$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="190">
   <si>
     <t xml:space="preserve">Testapparaat APPS</t>
   </si>
@@ -67,16 +68,28 @@
     <t xml:space="preserve">URL</t>
   </si>
   <si>
-    <t xml:space="preserve">Stuks</t>
+    <t xml:space="preserve">Stuks (per prototype)</t>
   </si>
   <si>
     <t xml:space="preserve">Formaat</t>
   </si>
   <si>
+    <t xml:space="preserve">Prijs p. stuk (bulk inkoop voor 5 prototypes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nettoprijs (bulk inkoop voor 5 prototypes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prijs p. stuk (bulk inkoop voor 10 prototypes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nettoprijs (bulk inkoop voor 10 prototypes)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prijs p. stuk </t>
   </si>
   <si>
-    <t xml:space="preserve">Netto prijs</t>
+    <t xml:space="preserve">Netto prijs (1 prototype geen bulk)</t>
   </si>
   <si>
     <t xml:space="preserve">Naam onderdeel.</t>
@@ -184,6 +197,18 @@
     <t xml:space="preserve">, glas 3A</t>
   </si>
   <si>
+    <t xml:space="preserve">Distrelec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zekeringhouding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zekeringhouder 5x20mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, tht</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pinheader 01x06</t>
   </si>
   <si>
@@ -256,16 +281,22 @@
     <t xml:space="preserve">2,54mm pitch, 1 rij 8 posities</t>
   </si>
   <si>
-    <t xml:space="preserve">Chassis connector 3 pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector voor noodstop extern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chassis connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bens Electronics</t>
+    <t xml:space="preserve">Chassis connector 3 pin female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector voor noodstop extern(chassis mount connector)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chassis connector male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chassis connector 3 pin male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector voor noodstop extern (cable side connector)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chassis connector female</t>
   </si>
   <si>
     <t xml:space="preserve">FPC 40 Pin 0,5mm Pitch</t>
@@ -304,25 +335,25 @@
     <t xml:space="preserve">2.1mmx5.5mm</t>
   </si>
   <si>
-    <t xml:space="preserve">Spoel 4,7uH</t>
+    <t xml:space="preserve">Spoel 68uH</t>
   </si>
   <si>
     <t xml:space="preserve">Spoel voor dc/dc regulator (5V)</t>
   </si>
   <si>
-    <t xml:space="preserve">4,7uH, SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoel 3,3uH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoel voor dc/dc regulator (3.3V)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,3uH SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS56428RHLR</t>
+    <t xml:space="preserve">68uH, SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS310 Schotky Diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schotky Diode voor dc/dc regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD DO-214AC-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM2596-adj</t>
   </si>
   <si>
     <t xml:space="preserve">dc/dc regulator ic (adj)</t>
@@ -331,6 +362,9 @@
     <t xml:space="preserve">Texas Instruments, SMD, </t>
   </si>
   <si>
+    <t xml:space="preserve">MOUSER | LCSC</t>
+  </si>
+  <si>
     <t xml:space="preserve">BC817</t>
   </si>
   <si>
@@ -451,7 +485,7 @@
     <t xml:space="preserve">SMD, 6-ch</t>
   </si>
   <si>
-    <t xml:space="preserve">MAX3223</t>
+    <t xml:space="preserve">MAX3232</t>
   </si>
   <si>
     <t xml:space="preserve">RS232 level translator</t>
@@ -466,26 +500,114 @@
     <t xml:space="preserve">Voedingsadapter voor opladen accu</t>
   </si>
   <si>
+    <t xml:space="preserve">15V, 1,6A</t>
+  </si>
+  <si>
     <t xml:space="preserve">RS</t>
   </si>
   <si>
+    <t xml:space="preserve">Lood accu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lood accu 2,9 Ah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12V 2,9Ah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reichelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotary encoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotary encoder voor draaiknop bediening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 pulse/rotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74AUC1G74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-flipflop voor herkennen draairichting encoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single flipflop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4605X-101-103LF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weerstandsnetwerk als pullup microsd kaart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THT, 4 weerstanden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printplaat materiaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printmateriaal voor hoofdontwerp, io, voeding en knoppen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurocircuits | JLCPCB(5eur per pcb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is nog in de maak</t>
+  </si>
+  <si>
     <t xml:space="preserve">Subtotaal:</t>
   </si>
   <si>
-    <t xml:space="preserve">Totaal:</t>
+    <t xml:space="preserve">Cost p/unit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aantal prototypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuren solderen en assembleren (beginner)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuren solderen en assembleren (novice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuren solderen en assembleren (expert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testen en afwerking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totaal beginner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totaal (novice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totaal (expert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 prototypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 prototypes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="167" formatCode="_ &quot;€ &quot;* #,##0.00_ ;_ &quot;€ &quot;* \-#,##0.00_ ;_ &quot;€ &quot;* \-??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_-&quot;€ &quot;* #,##0.00_-;_-&quot;€ &quot;* #,##0.00\-;_-&quot;€ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -554,13 +676,6 @@
     <font>
       <b val="true"/>
       <sz val="8"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
@@ -835,7 +950,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -952,14 +1067,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -988,14 +1103,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1020,6 +1135,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1056,19 +1175,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1076,12 +1199,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1157,36 +1284,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:R165"/>
+  <dimension ref="A1:Y175"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D15" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I38" activeCellId="0" sqref="I38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="46.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="10.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="1.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="1.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="0.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="1.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="3" width="10.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="25" style="1" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1204,10 +1338,17 @@
       <c r="L1" s="5"/>
       <c r="M1" s="6"/>
       <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
+      <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="2"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8"/>
@@ -1226,7 +1367,14 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="9"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
@@ -1245,7 +1393,14 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
@@ -1264,7 +1419,14 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
@@ -1283,7 +1445,14 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
@@ -1302,7 +1471,14 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
@@ -1324,6 +1500,13 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
@@ -1345,6 +1528,13 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
@@ -1368,10 +1558,17 @@
       <c r="M9" s="19" t="n">
         <v>43391</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="20"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
@@ -1395,10 +1592,17 @@
       <c r="M10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="24"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
@@ -1414,12 +1618,19 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="24"/>
-    </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="24"/>
+    </row>
+    <row r="12" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="s">
         <v>9</v>
       </c>
@@ -1447,69 +1658,91 @@
       <c r="M12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="27"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="31" t="s">
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29" t="s">
         <v>17</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="29"/>
+      <c r="W12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="34" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J13" s="35"/>
       <c r="K13" s="36" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L13" s="33"/>
       <c r="M13" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
+        <v>28</v>
+      </c>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="42" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="41" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="43" t="n">
@@ -1517,1862 +1750,3046 @@
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="43"/>
-      <c r="N14" s="12"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="45" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P14" s="25"/>
       <c r="Q14" s="46" t="n">
-        <f aca="false">K14*O14</f>
-        <v>3.3</v>
+        <f aca="false">K14*O14*5</f>
+        <v>18</v>
+      </c>
+      <c r="R14" s="25"/>
+      <c r="S14" s="45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T14" s="25"/>
+      <c r="U14" s="46" t="n">
+        <f aca="false">K14*S14*10</f>
+        <v>36</v>
+      </c>
+      <c r="V14" s="25"/>
+      <c r="W14" s="45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X14" s="47" t="n">
+        <f aca="false">K14*W14</f>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47" t="s">
-        <v>30</v>
+      <c r="A15" s="48" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="48" t="s">
-        <v>31</v>
+      <c r="C15" s="49" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="47" t="s">
-        <v>32</v>
+      <c r="E15" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50" t="s">
-        <v>29</v>
+      <c r="G15" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J15" s="12"/>
-      <c r="K15" s="49" t="n">
-        <v>14</v>
+      <c r="K15" s="50" t="n">
+        <v>21</v>
       </c>
       <c r="L15" s="12"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="12"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="45" t="n">
         <v>0.13</v>
       </c>
       <c r="P15" s="25"/>
       <c r="Q15" s="46" t="n">
-        <f aca="false">K15*O15</f>
-        <v>1.82</v>
+        <f aca="false">K15*O15*5</f>
+        <v>13.65</v>
+      </c>
+      <c r="R15" s="25"/>
+      <c r="S15" s="45" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="T15" s="25"/>
+      <c r="U15" s="46" t="n">
+        <f aca="false">K15*S15*10</f>
+        <v>19.32</v>
+      </c>
+      <c r="V15" s="25"/>
+      <c r="W15" s="45" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X15" s="47" t="n">
+        <f aca="false">K15*W15</f>
+        <v>2.73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="47" t="s">
-        <v>33</v>
+      <c r="A16" s="48" t="s">
+        <v>37</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="48" t="s">
-        <v>34</v>
+      <c r="C16" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="47" t="s">
-        <v>35</v>
+      <c r="E16" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50" t="s">
-        <v>29</v>
+      <c r="G16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J16" s="12"/>
-      <c r="K16" s="49" t="n">
-        <v>3</v>
+      <c r="K16" s="50" t="n">
+        <v>10</v>
       </c>
       <c r="L16" s="12"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="12"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="45" t="n">
-        <v>0.1</v>
+        <v>0.019</v>
       </c>
       <c r="P16" s="25"/>
       <c r="Q16" s="46" t="n">
-        <f aca="false">K16*O16</f>
-        <v>0.3</v>
+        <f aca="false">K16*O16*5</f>
+        <v>0.95</v>
+      </c>
+      <c r="R16" s="25"/>
+      <c r="S16" s="45" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="T16" s="25"/>
+      <c r="U16" s="46" t="n">
+        <f aca="false">K16*S16*10</f>
+        <v>1.9</v>
+      </c>
+      <c r="V16" s="25"/>
+      <c r="W16" s="45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X16" s="47" t="n">
+        <f aca="false">K16*W16</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="47" t="s">
-        <v>36</v>
+      <c r="A17" s="48" t="s">
+        <v>40</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="48" t="s">
-        <v>31</v>
+      <c r="C17" s="49" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="47" t="s">
-        <v>37</v>
+      <c r="E17" s="48" t="s">
+        <v>41</v>
       </c>
       <c r="F17" s="12"/>
-      <c r="G17" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50" t="s">
-        <v>29</v>
+      <c r="G17" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J17" s="12"/>
-      <c r="K17" s="49" t="n">
+      <c r="K17" s="50" t="n">
         <v>2</v>
       </c>
       <c r="L17" s="12"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="12"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="45" t="n">
-        <v>0.13</v>
+        <v>0.052</v>
       </c>
       <c r="P17" s="25"/>
       <c r="Q17" s="46" t="n">
-        <f aca="false">K17*O17</f>
+        <f aca="false">K17*O17*5</f>
+        <v>0.52</v>
+      </c>
+      <c r="R17" s="25"/>
+      <c r="S17" s="45" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="T17" s="25"/>
+      <c r="U17" s="46" t="n">
+        <f aca="false">K17*S17*10</f>
+        <v>1.04</v>
+      </c>
+      <c r="V17" s="25"/>
+      <c r="W17" s="45" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X17" s="47" t="n">
+        <f aca="false">K17*W17</f>
         <v>0.26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="47" t="s">
-        <v>38</v>
+      <c r="A18" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="48" t="s">
-        <v>39</v>
+      <c r="C18" s="49" t="s">
+        <v>43</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="47" t="s">
-        <v>40</v>
+      <c r="E18" s="48" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50" t="s">
-        <v>29</v>
+      <c r="G18" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J18" s="12"/>
-      <c r="K18" s="49" t="n">
+      <c r="K18" s="50" t="n">
         <v>2</v>
       </c>
       <c r="L18" s="12"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="12"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="45" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="P18" s="25"/>
       <c r="Q18" s="46" t="n">
-        <f aca="false">K18*O18</f>
+        <f aca="false">K18*O18*5</f>
+        <v>2.4</v>
+      </c>
+      <c r="R18" s="25"/>
+      <c r="S18" s="45" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T18" s="25"/>
+      <c r="U18" s="46" t="n">
+        <f aca="false">K18*S18*10</f>
+        <v>4.8</v>
+      </c>
+      <c r="V18" s="25"/>
+      <c r="W18" s="45" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="X18" s="47" t="n">
+        <f aca="false">K18*W18</f>
         <v>0.56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="47" t="s">
-        <v>41</v>
+      <c r="A19" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="48" t="s">
-        <v>42</v>
+      <c r="C19" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="47" t="s">
-        <v>43</v>
+      <c r="E19" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50" t="s">
-        <v>29</v>
+      <c r="G19" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J19" s="12"/>
-      <c r="K19" s="49" t="n">
-        <v>1</v>
+      <c r="K19" s="50" t="n">
+        <v>4</v>
       </c>
       <c r="L19" s="12"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="12"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="25"/>
       <c r="O19" s="45" t="n">
-        <v>0.3</v>
+        <v>0.296</v>
       </c>
       <c r="P19" s="25"/>
       <c r="Q19" s="46" t="n">
-        <f aca="false">K19*O19</f>
+        <f aca="false">K19*O19*5</f>
+        <v>5.92</v>
+      </c>
+      <c r="R19" s="25"/>
+      <c r="S19" s="45" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="T19" s="25"/>
+      <c r="U19" s="46" t="n">
+        <f aca="false">K19*S19*10</f>
+        <v>11.84</v>
+      </c>
+      <c r="V19" s="25"/>
+      <c r="W19" s="45" t="n">
         <v>0.3</v>
       </c>
+      <c r="X19" s="47" t="n">
+        <f aca="false">K19*W19</f>
+        <v>1.2</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="47" t="s">
-        <v>44</v>
+      <c r="A20" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="48" t="s">
-        <v>45</v>
+      <c r="C20" s="49" t="s">
+        <v>49</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="47" t="s">
-        <v>46</v>
+      <c r="E20" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50" t="s">
-        <v>29</v>
+      <c r="G20" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J20" s="12"/>
-      <c r="K20" s="49" t="n">
+      <c r="K20" s="50" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="12"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="12"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="45" t="n">
         <v>0.38</v>
       </c>
       <c r="P20" s="25"/>
       <c r="Q20" s="46" t="n">
-        <f aca="false">K20*O20</f>
+        <f aca="false">K20*O20*5</f>
+        <v>1.9</v>
+      </c>
+      <c r="R20" s="25"/>
+      <c r="S20" s="45" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T20" s="25"/>
+      <c r="U20" s="46" t="n">
+        <f aca="false">K20*S20*10</f>
+        <v>3.1</v>
+      </c>
+      <c r="V20" s="25"/>
+      <c r="W20" s="45" t="n">
         <v>0.38</v>
       </c>
+      <c r="X20" s="47" t="n">
+        <f aca="false">K20*W20</f>
+        <v>0.38</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="47" t="s">
-        <v>47</v>
+      <c r="A21" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="48" t="s">
-        <v>48</v>
+      <c r="C21" s="49" t="s">
+        <v>52</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="47" t="s">
-        <v>49</v>
+      <c r="E21" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="G21" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50" t="s">
-        <v>29</v>
+      <c r="G21" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J21" s="12"/>
-      <c r="K21" s="49" t="n">
-        <v>1</v>
+      <c r="K21" s="50" t="n">
+        <v>8</v>
       </c>
       <c r="L21" s="12"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="12"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="25"/>
       <c r="O21" s="45" t="n">
         <v>0.2</v>
       </c>
       <c r="P21" s="25"/>
       <c r="Q21" s="46" t="n">
-        <f aca="false">K21*O21</f>
+        <f aca="false">K21*O21*5</f>
+        <v>8</v>
+      </c>
+      <c r="R21" s="25"/>
+      <c r="S21" s="45" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T21" s="25"/>
+      <c r="U21" s="46" t="n">
+        <f aca="false">K21*S21*10</f>
+        <v>14.4</v>
+      </c>
+      <c r="V21" s="25"/>
+      <c r="W21" s="45" t="n">
         <v>0.2</v>
       </c>
+      <c r="X21" s="47" t="n">
+        <f aca="false">K21*W21</f>
+        <v>1.6</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="47" t="s">
-        <v>50</v>
+      <c r="A22" s="48" t="s">
+        <v>54</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="48" t="s">
-        <v>51</v>
+      <c r="C22" s="49" t="s">
+        <v>55</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="47" t="s">
-        <v>52</v>
+      <c r="E22" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
+      <c r="G22" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51" t="s">
+        <v>57</v>
+      </c>
       <c r="J22" s="12"/>
-      <c r="K22" s="49" t="n">
+      <c r="K22" s="50" t="n">
         <v>1</v>
       </c>
       <c r="L22" s="12"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="45"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="45" t="n">
+        <v>0.3577</v>
+      </c>
       <c r="P22" s="25"/>
       <c r="Q22" s="46" t="n">
-        <f aca="false">K22*O22</f>
-        <v>0</v>
+        <f aca="false">K22*O22*5</f>
+        <v>1.7885</v>
+      </c>
+      <c r="R22" s="25"/>
+      <c r="S22" s="45" t="n">
+        <v>0.3577</v>
+      </c>
+      <c r="T22" s="25"/>
+      <c r="U22" s="46" t="n">
+        <f aca="false">K22*S22*10</f>
+        <v>3.577</v>
+      </c>
+      <c r="V22" s="25"/>
+      <c r="W22" s="45" t="n">
+        <v>0.3577</v>
+      </c>
+      <c r="X22" s="47" t="n">
+        <f aca="false">K22*W22</f>
+        <v>0.3577</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="47" t="s">
-        <v>53</v>
+      <c r="A23" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="48" t="s">
-        <v>54</v>
+      <c r="C23" s="49" t="s">
+        <v>59</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="47" t="s">
-        <v>55</v>
+      <c r="E23" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50" t="s">
-        <v>29</v>
+      <c r="G23" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51" t="s">
+        <v>57</v>
       </c>
       <c r="J23" s="12"/>
-      <c r="K23" s="49" t="n">
+      <c r="K23" s="50" t="n">
         <v>1</v>
       </c>
       <c r="L23" s="12"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="12"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="25"/>
       <c r="O23" s="45" t="n">
-        <v>0.21</v>
+        <v>0.4143</v>
       </c>
       <c r="P23" s="25"/>
       <c r="Q23" s="46" t="n">
-        <f aca="false">K23*O23</f>
+        <f aca="false">K23*O23*5</f>
+        <v>2.0715</v>
+      </c>
+      <c r="R23" s="25"/>
+      <c r="S23" s="45" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="T23" s="25"/>
+      <c r="U23" s="46" t="n">
+        <f aca="false">K23*S23*10</f>
+        <v>3.561</v>
+      </c>
+      <c r="V23" s="25"/>
+      <c r="W23" s="45" t="n">
+        <v>0.4143</v>
+      </c>
+      <c r="X23" s="47" t="n">
+        <f aca="false">K23*W23</f>
+        <v>0.4143</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="45" t="n">
         <v>0.21</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="45" t="n">
-        <v>0.63</v>
       </c>
       <c r="P24" s="25"/>
       <c r="Q24" s="46" t="n">
-        <f aca="false">K24*O24</f>
-        <v>1.26</v>
+        <f aca="false">K24*O24*5</f>
+        <v>2.1</v>
+      </c>
+      <c r="R24" s="25"/>
+      <c r="S24" s="45" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="T24" s="25"/>
+      <c r="U24" s="46" t="n">
+        <f aca="false">K24*S24*10</f>
+        <v>3.32</v>
+      </c>
+      <c r="V24" s="25"/>
+      <c r="W24" s="45" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X24" s="47" t="n">
+        <f aca="false">K24*W24</f>
+        <v>0.42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="47" t="s">
-        <v>59</v>
+      <c r="A25" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="48" t="s">
-        <v>60</v>
+      <c r="C25" s="49" t="s">
+        <v>65</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="47" t="s">
-        <v>61</v>
+      <c r="E25" s="48" t="s">
+        <v>66</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50" t="s">
-        <v>29</v>
+      <c r="G25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J25" s="12"/>
-      <c r="K25" s="49" t="n">
-        <v>1</v>
+      <c r="K25" s="50" t="n">
+        <v>2</v>
       </c>
       <c r="L25" s="12"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="12"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="25"/>
       <c r="O25" s="45" t="n">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="P25" s="25"/>
       <c r="Q25" s="46" t="n">
-        <f aca="false">K25*O25</f>
+        <f aca="false">K25*O25*5</f>
+        <v>5.3</v>
+      </c>
+      <c r="R25" s="25"/>
+      <c r="S25" s="45" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T25" s="25"/>
+      <c r="U25" s="46" t="n">
+        <f aca="false">K25*S25*10</f>
+        <v>10.6</v>
+      </c>
+      <c r="V25" s="25"/>
+      <c r="W25" s="45" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="X25" s="47" t="n">
+        <f aca="false">K25*W25</f>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="45" t="n">
         <v>0.44</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="45" t="n">
-        <v>0.14</v>
       </c>
       <c r="P26" s="25"/>
       <c r="Q26" s="46" t="n">
-        <f aca="false">K26*O26</f>
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="47" t="s">
-        <v>65</v>
+        <f aca="false">K26*O26*5</f>
+        <v>2.2</v>
+      </c>
+      <c r="R26" s="25"/>
+      <c r="S26" s="45" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T26" s="25"/>
+      <c r="U26" s="46" t="n">
+        <f aca="false">K26*S26*10</f>
+        <v>3.7</v>
+      </c>
+      <c r="V26" s="25"/>
+      <c r="W26" s="45" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="X26" s="47" t="n">
+        <f aca="false">K26*W26</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="10.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="48" t="s">
-        <v>66</v>
+      <c r="C27" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="47" t="s">
-        <v>67</v>
+      <c r="E27" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50" t="s">
-        <v>29</v>
+      <c r="G27" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J27" s="12"/>
-      <c r="K27" s="49" t="n">
-        <v>1</v>
+      <c r="K27" s="50" t="n">
+        <v>3</v>
       </c>
       <c r="L27" s="12"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="12"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="45" t="n">
-        <v>0.17</v>
+        <v>0.096</v>
       </c>
       <c r="P27" s="25"/>
       <c r="Q27" s="46" t="n">
-        <f aca="false">K27*O27</f>
+        <f aca="false">K27*O27*5</f>
+        <v>1.44</v>
+      </c>
+      <c r="R27" s="25"/>
+      <c r="S27" s="45" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="T27" s="25"/>
+      <c r="U27" s="46" t="n">
+        <f aca="false">K27*S27*10</f>
+        <v>2.88</v>
+      </c>
+      <c r="V27" s="25"/>
+      <c r="W27" s="45" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="X27" s="47" t="n">
+        <f aca="false">K27*W27</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="10.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="45" t="n">
         <v>0.17</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="45" t="n">
-        <v>1.38</v>
       </c>
       <c r="P28" s="25"/>
       <c r="Q28" s="46" t="n">
-        <f aca="false">K28*O28</f>
+        <f aca="false">K28*O28*5</f>
+        <v>0.85</v>
+      </c>
+      <c r="R28" s="25"/>
+      <c r="S28" s="45" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="T28" s="25"/>
+      <c r="U28" s="46" t="n">
+        <f aca="false">K28*S28*10</f>
+        <v>1.26</v>
+      </c>
+      <c r="V28" s="25"/>
+      <c r="W28" s="45" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="X28" s="47" t="n">
+        <f aca="false">K28*W28</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="9.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="45" t="n">
         <v>1.38</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="45" t="n">
-        <v>0.52</v>
       </c>
       <c r="P29" s="25"/>
       <c r="Q29" s="46" t="n">
-        <f aca="false">K29*O29</f>
+        <f aca="false">K29*O29*5</f>
+        <v>6.9</v>
+      </c>
+      <c r="R29" s="25"/>
+      <c r="S29" s="45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="T29" s="25"/>
+      <c r="U29" s="46" t="n">
+        <f aca="false">K29*S29*10</f>
+        <v>11</v>
+      </c>
+      <c r="V29" s="25"/>
+      <c r="W29" s="45" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X29" s="47" t="n">
+        <f aca="false">K29*W29</f>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="11.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="45" t="n">
         <v>0.52</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="45" t="n">
-        <v>0.27</v>
       </c>
       <c r="P30" s="25"/>
       <c r="Q30" s="46" t="n">
-        <f aca="false">K30*O30</f>
+        <f aca="false">K30*O30*5</f>
+        <v>2.6</v>
+      </c>
+      <c r="R30" s="25"/>
+      <c r="S30" s="45" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T30" s="25"/>
+      <c r="U30" s="46" t="n">
+        <f aca="false">K30*S30*10</f>
+        <v>4.3</v>
+      </c>
+      <c r="V30" s="25"/>
+      <c r="W30" s="45" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="X30" s="47" t="n">
+        <f aca="false">K30*W30</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="10.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="45" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="45"/>
       <c r="P31" s="25"/>
       <c r="Q31" s="46" t="n">
-        <f aca="false">K31*O31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="47" t="s">
-        <v>81</v>
+        <f aca="false">K31*O31*5</f>
+        <v>1.35</v>
+      </c>
+      <c r="R31" s="25"/>
+      <c r="S31" s="45" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="T31" s="25"/>
+      <c r="U31" s="46" t="n">
+        <f aca="false">K31*S31*10</f>
+        <v>2.08</v>
+      </c>
+      <c r="V31" s="25"/>
+      <c r="W31" s="45" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="X31" s="47" t="n">
+        <f aca="false">K31*W31</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="10.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="48" t="s">
+        <v>85</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="48" t="s">
-        <v>82</v>
+      <c r="C32" s="49" t="s">
+        <v>86</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="47" t="s">
-        <v>83</v>
+      <c r="E32" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="F32" s="12"/>
-      <c r="G32" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50" t="s">
-        <v>29</v>
+      <c r="G32" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51" t="s">
+        <v>57</v>
       </c>
       <c r="J32" s="12"/>
-      <c r="K32" s="49" t="n">
+      <c r="K32" s="50" t="n">
         <v>1</v>
       </c>
       <c r="L32" s="12"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="12"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="45" t="n">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
       <c r="P32" s="25"/>
       <c r="Q32" s="46" t="n">
-        <f aca="false">K32*O32</f>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="47" t="s">
-        <v>84</v>
+        <f aca="false">K32*O32*5</f>
+        <v>3.75</v>
+      </c>
+      <c r="R32" s="25"/>
+      <c r="S32" s="45" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="T32" s="25"/>
+      <c r="U32" s="46" t="n">
+        <f aca="false">K32*S32*10</f>
+        <v>7.4</v>
+      </c>
+      <c r="V32" s="25"/>
+      <c r="W32" s="45" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X32" s="47" t="n">
+        <f aca="false">K32*W32</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="10.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="48" t="s">
-        <v>85</v>
+      <c r="C33" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="D33" s="12"/>
-      <c r="E33" s="47" t="s">
-        <v>86</v>
+      <c r="E33" s="48" t="s">
+        <v>90</v>
       </c>
       <c r="F33" s="12"/>
-      <c r="G33" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50" t="s">
-        <v>29</v>
+      <c r="G33" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51" t="s">
+        <v>57</v>
       </c>
       <c r="J33" s="12"/>
-      <c r="K33" s="49" t="n">
+      <c r="K33" s="50" t="n">
         <v>1</v>
       </c>
       <c r="L33" s="12"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="12"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="25"/>
       <c r="O33" s="45" t="n">
-        <v>1.05</v>
+        <v>0.67</v>
       </c>
       <c r="P33" s="25"/>
       <c r="Q33" s="46" t="n">
-        <f aca="false">K33*O33</f>
-        <v>1.05</v>
+        <f aca="false">K33*O33*5</f>
+        <v>3.35</v>
+      </c>
+      <c r="R33" s="25"/>
+      <c r="S33" s="45" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="T33" s="25"/>
+      <c r="U33" s="46" t="n">
+        <f aca="false">K33*S33*10</f>
+        <v>6.6</v>
+      </c>
+      <c r="V33" s="25"/>
+      <c r="W33" s="45" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="X33" s="47" t="n">
+        <f aca="false">K33*W33</f>
+        <v>0.67</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="47" t="s">
-        <v>87</v>
+      <c r="A34" s="48" t="s">
+        <v>91</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="48" t="s">
-        <v>88</v>
+      <c r="C34" s="49" t="s">
+        <v>92</v>
       </c>
       <c r="D34" s="12"/>
-      <c r="E34" s="47" t="s">
-        <v>89</v>
+      <c r="E34" s="48" t="s">
+        <v>93</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50" t="s">
-        <v>29</v>
+      <c r="G34" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J34" s="12"/>
-      <c r="K34" s="49" t="n">
+      <c r="K34" s="50" t="n">
         <v>1</v>
       </c>
       <c r="L34" s="12"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="12"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="25"/>
       <c r="O34" s="45" t="n">
-        <v>1.2</v>
+        <v>0.66</v>
       </c>
       <c r="P34" s="25"/>
       <c r="Q34" s="46" t="n">
-        <f aca="false">K34*O34</f>
-        <v>1.2</v>
+        <f aca="false">K34*O34*5</f>
+        <v>3.3</v>
+      </c>
+      <c r="R34" s="25"/>
+      <c r="S34" s="45" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="T34" s="25"/>
+      <c r="U34" s="46" t="n">
+        <f aca="false">K34*S34*10</f>
+        <v>5.54</v>
+      </c>
+      <c r="V34" s="25"/>
+      <c r="W34" s="45" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="X34" s="47" t="n">
+        <f aca="false">K34*W34</f>
+        <v>0.66</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="47" t="s">
-        <v>90</v>
+      <c r="A35" s="48" t="s">
+        <v>94</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="48" t="s">
-        <v>91</v>
+      <c r="C35" s="49" t="s">
+        <v>95</v>
       </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="47" t="s">
-        <v>92</v>
+      <c r="E35" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
+      <c r="G35" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="50"/>
+      <c r="I35" s="51" t="s">
+        <v>33</v>
+      </c>
       <c r="J35" s="12"/>
-      <c r="K35" s="49" t="n">
+      <c r="K35" s="50" t="n">
         <v>1</v>
       </c>
       <c r="L35" s="12"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="45"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="45" t="n">
+        <v>1.05</v>
+      </c>
       <c r="P35" s="25"/>
       <c r="Q35" s="46" t="n">
-        <f aca="false">K35*O35</f>
-        <v>0</v>
+        <f aca="false">K35*O35*5</f>
+        <v>5.25</v>
+      </c>
+      <c r="R35" s="25"/>
+      <c r="S35" s="45" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="T35" s="25"/>
+      <c r="U35" s="46" t="n">
+        <f aca="false">K35*S35*10</f>
+        <v>8.34</v>
+      </c>
+      <c r="V35" s="25"/>
+      <c r="W35" s="45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X35" s="47" t="n">
+        <f aca="false">K35*W35</f>
+        <v>1.05</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="47" t="s">
-        <v>93</v>
+      <c r="A36" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="C36" s="48" t="s">
-        <v>94</v>
+      <c r="C36" s="49" t="s">
+        <v>98</v>
       </c>
       <c r="D36" s="12"/>
-      <c r="E36" s="47" t="s">
-        <v>95</v>
+      <c r="E36" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
+      <c r="G36" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51" t="s">
+        <v>33</v>
+      </c>
       <c r="J36" s="12"/>
-      <c r="K36" s="49" t="n">
+      <c r="K36" s="50" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="12"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="45"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="45" t="n">
+        <v>1.2</v>
+      </c>
       <c r="P36" s="25"/>
       <c r="Q36" s="46" t="n">
-        <f aca="false">K36*O36</f>
-        <v>0</v>
+        <f aca="false">K36*O36*5</f>
+        <v>6</v>
+      </c>
+      <c r="R36" s="25"/>
+      <c r="S36" s="45" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="T36" s="25"/>
+      <c r="U36" s="46" t="n">
+        <f aca="false">K36*S36*10</f>
+        <v>9.66</v>
+      </c>
+      <c r="V36" s="25"/>
+      <c r="W36" s="45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X36" s="47" t="n">
+        <f aca="false">K36*W36</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="47" t="s">
-        <v>96</v>
+      <c r="A37" s="48" t="s">
+        <v>100</v>
       </c>
       <c r="B37" s="12"/>
-      <c r="C37" s="48" t="s">
-        <v>97</v>
+      <c r="C37" s="49" t="s">
+        <v>101</v>
       </c>
       <c r="D37" s="12"/>
-      <c r="E37" s="47" t="s">
-        <v>98</v>
+      <c r="E37" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="F37" s="12"/>
-      <c r="G37" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
+      <c r="G37" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="50"/>
+      <c r="I37" s="51" t="s">
+        <v>33</v>
+      </c>
       <c r="J37" s="12"/>
-      <c r="K37" s="49" t="n">
+      <c r="K37" s="50" t="n">
         <v>1</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="45"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="45" t="n">
+        <v>1.04</v>
+      </c>
       <c r="P37" s="25"/>
       <c r="Q37" s="46" t="n">
-        <f aca="false">K37*O37</f>
-        <v>0</v>
+        <f aca="false">K37*O37*5</f>
+        <v>5.2</v>
+      </c>
+      <c r="R37" s="25"/>
+      <c r="S37" s="45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T37" s="25"/>
+      <c r="U37" s="46" t="n">
+        <f aca="false">K37*S37*10</f>
+        <v>10.4</v>
+      </c>
+      <c r="V37" s="25"/>
+      <c r="W37" s="45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X37" s="47" t="n">
+        <f aca="false">K37*W37</f>
+        <v>1.04</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="47" t="s">
-        <v>99</v>
+      <c r="A38" s="48" t="s">
+        <v>103</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="48" t="s">
-        <v>100</v>
+      <c r="C38" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="D38" s="12"/>
-      <c r="E38" s="47" t="s">
-        <v>101</v>
+      <c r="E38" s="48" t="s">
+        <v>105</v>
       </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="50" t="s">
-        <v>29</v>
+      <c r="G38" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="50"/>
+      <c r="I38" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J38" s="12"/>
-      <c r="K38" s="49" t="n">
+      <c r="K38" s="50" t="n">
         <v>2</v>
       </c>
       <c r="L38" s="12"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="12"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="25"/>
       <c r="O38" s="45" t="n">
-        <v>1.63</v>
+        <v>0.945</v>
       </c>
       <c r="P38" s="25"/>
       <c r="Q38" s="46" t="n">
-        <f aca="false">K38*O38</f>
-        <v>3.26</v>
+        <f aca="false">K38*O38*5</f>
+        <v>9.45</v>
+      </c>
+      <c r="R38" s="25"/>
+      <c r="S38" s="45" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="T38" s="25"/>
+      <c r="U38" s="46" t="n">
+        <f aca="false">K38*S38*10</f>
+        <v>18.9</v>
+      </c>
+      <c r="V38" s="25"/>
+      <c r="W38" s="45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X38" s="47" t="n">
+        <f aca="false">K38*W38</f>
+        <v>2.58</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="47" t="s">
-        <v>102</v>
+      <c r="A39" s="49" t="s">
+        <v>106</v>
       </c>
       <c r="B39" s="12"/>
-      <c r="C39" s="48" t="s">
-        <v>103</v>
+      <c r="C39" s="49" t="s">
+        <v>107</v>
       </c>
       <c r="D39" s="12"/>
-      <c r="E39" s="47" t="s">
-        <v>89</v>
+      <c r="E39" s="48" t="s">
+        <v>108</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="49"/>
-      <c r="I39" s="50" t="s">
-        <v>29</v>
+      <c r="G39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="50"/>
+      <c r="I39" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J39" s="12"/>
-      <c r="K39" s="49" t="n">
-        <v>3</v>
+      <c r="K39" s="50" t="n">
+        <v>2</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="12"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="25"/>
       <c r="O39" s="45" t="n">
-        <v>0.17</v>
+        <v>0.354</v>
       </c>
       <c r="P39" s="25"/>
       <c r="Q39" s="46" t="n">
-        <f aca="false">K39*O39</f>
-        <v>0.51</v>
+        <f aca="false">K39*O39*5</f>
+        <v>3.54</v>
+      </c>
+      <c r="R39" s="25"/>
+      <c r="S39" s="45" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="T39" s="25"/>
+      <c r="U39" s="46" t="n">
+        <f aca="false">K39*S39*10</f>
+        <v>7.08</v>
+      </c>
+      <c r="V39" s="25"/>
+      <c r="W39" s="45" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="X39" s="47" t="n">
+        <f aca="false">K39*W39</f>
+        <v>0.94</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="47" t="s">
-        <v>104</v>
+      <c r="A40" s="48" t="s">
+        <v>109</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="48" t="s">
-        <v>105</v>
+      <c r="C40" s="49" t="s">
+        <v>110</v>
       </c>
       <c r="D40" s="12"/>
-      <c r="E40" s="47" t="s">
-        <v>89</v>
+      <c r="E40" s="48" t="s">
+        <v>111</v>
       </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="49"/>
-      <c r="I40" s="50" t="s">
-        <v>29</v>
+      <c r="G40" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J40" s="12"/>
-      <c r="K40" s="49" t="n">
-        <v>3</v>
+      <c r="K40" s="50" t="n">
+        <v>2</v>
       </c>
       <c r="L40" s="12"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="12"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="25"/>
       <c r="O40" s="45" t="n">
-        <v>1.04</v>
+        <v>2.33</v>
       </c>
       <c r="P40" s="25"/>
       <c r="Q40" s="46" t="n">
-        <f aca="false">K40*O40</f>
-        <v>3.12</v>
+        <f aca="false">K40*O40*5</f>
+        <v>23.3</v>
+      </c>
+      <c r="R40" s="25"/>
+      <c r="S40" s="45" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="T40" s="25"/>
+      <c r="U40" s="46" t="n">
+        <f aca="false">K40*S40*10</f>
+        <v>46.6</v>
+      </c>
+      <c r="V40" s="25"/>
+      <c r="W40" s="45" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X40" s="47" t="n">
+        <f aca="false">K40*W40</f>
+        <v>5.48</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="47" t="s">
-        <v>106</v>
+      <c r="A41" s="48" t="s">
+        <v>113</v>
       </c>
       <c r="B41" s="12"/>
-      <c r="C41" s="48" t="s">
-        <v>107</v>
+      <c r="C41" s="49" t="s">
+        <v>114</v>
       </c>
       <c r="D41" s="12"/>
-      <c r="E41" s="47" t="s">
-        <v>108</v>
+      <c r="E41" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="F41" s="12"/>
-      <c r="G41" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50" t="s">
-        <v>29</v>
+      <c r="G41" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="50"/>
+      <c r="I41" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J41" s="12"/>
-      <c r="K41" s="49" t="n">
+      <c r="K41" s="50" t="n">
         <v>3</v>
       </c>
       <c r="L41" s="12"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="12"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="25"/>
       <c r="O41" s="45" t="n">
-        <v>0.1</v>
+        <v>0.141</v>
       </c>
       <c r="P41" s="25"/>
       <c r="Q41" s="46" t="n">
-        <f aca="false">K41*O41</f>
-        <v>0.3</v>
+        <f aca="false">K41*O41*5</f>
+        <v>2.115</v>
+      </c>
+      <c r="R41" s="25"/>
+      <c r="S41" s="45" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="T41" s="25"/>
+      <c r="U41" s="46" t="n">
+        <f aca="false">K41*S41*10</f>
+        <v>4.23</v>
+      </c>
+      <c r="V41" s="25"/>
+      <c r="W41" s="45" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="X41" s="47" t="n">
+        <f aca="false">K41*W41</f>
+        <v>0.51</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="47" t="s">
-        <v>109</v>
+      <c r="A42" s="48" t="s">
+        <v>115</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="48" t="s">
-        <v>107</v>
+      <c r="C42" s="49" t="s">
+        <v>116</v>
       </c>
       <c r="D42" s="12"/>
-      <c r="E42" s="47" t="s">
-        <v>110</v>
+      <c r="E42" s="48" t="s">
+        <v>99</v>
       </c>
       <c r="F42" s="12"/>
-      <c r="G42" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="49"/>
-      <c r="I42" s="50" t="s">
-        <v>29</v>
+      <c r="G42" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="50"/>
+      <c r="I42" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J42" s="12"/>
-      <c r="K42" s="49" t="n">
-        <v>18</v>
+      <c r="K42" s="50" t="n">
+        <v>3</v>
       </c>
       <c r="L42" s="12"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="12"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="25"/>
       <c r="O42" s="45" t="n">
-        <v>0.1</v>
+        <v>0.936</v>
       </c>
       <c r="P42" s="25"/>
       <c r="Q42" s="46" t="n">
-        <f aca="false">K42*O42</f>
-        <v>1.8</v>
+        <f aca="false">K42*O42*5</f>
+        <v>14.04</v>
+      </c>
+      <c r="R42" s="25"/>
+      <c r="S42" s="45" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="T42" s="25"/>
+      <c r="U42" s="46" t="n">
+        <f aca="false">K42*S42*10</f>
+        <v>28.08</v>
+      </c>
+      <c r="V42" s="25"/>
+      <c r="W42" s="45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X42" s="47" t="n">
+        <f aca="false">K42*W42</f>
+        <v>3.12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="47" t="s">
-        <v>111</v>
+      <c r="A43" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="B43" s="12"/>
-      <c r="C43" s="48" t="s">
-        <v>107</v>
+      <c r="C43" s="49" t="s">
+        <v>118</v>
       </c>
       <c r="D43" s="12"/>
-      <c r="E43" s="47" t="s">
-        <v>112</v>
+      <c r="E43" s="48" t="s">
+        <v>119</v>
       </c>
       <c r="F43" s="12"/>
-      <c r="G43" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="49"/>
-      <c r="I43" s="50" t="s">
-        <v>29</v>
+      <c r="G43" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="50"/>
+      <c r="I43" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J43" s="12"/>
-      <c r="K43" s="49" t="n">
-        <v>5</v>
+      <c r="K43" s="50" t="n">
+        <v>3</v>
       </c>
       <c r="L43" s="12"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="12"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="25"/>
       <c r="O43" s="45" t="n">
-        <v>0.1</v>
+        <v>0.017</v>
       </c>
       <c r="P43" s="25"/>
       <c r="Q43" s="46" t="n">
-        <f aca="false">K43*O43</f>
-        <v>0.5</v>
+        <f aca="false">K43*O43*5</f>
+        <v>0.255</v>
+      </c>
+      <c r="R43" s="25"/>
+      <c r="S43" s="45" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="T43" s="25"/>
+      <c r="U43" s="46" t="n">
+        <f aca="false">K43*S43*10</f>
+        <v>0.51</v>
+      </c>
+      <c r="V43" s="25"/>
+      <c r="W43" s="45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X43" s="47" t="n">
+        <f aca="false">K43*W43</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="47" t="s">
-        <v>113</v>
+      <c r="A44" s="48" t="s">
+        <v>120</v>
       </c>
       <c r="B44" s="12"/>
-      <c r="C44" s="48" t="s">
-        <v>107</v>
+      <c r="C44" s="49" t="s">
+        <v>118</v>
       </c>
       <c r="D44" s="12"/>
-      <c r="E44" s="47" t="s">
-        <v>114</v>
+      <c r="E44" s="48" t="s">
+        <v>121</v>
       </c>
       <c r="F44" s="12"/>
-      <c r="G44" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="50" t="s">
-        <v>29</v>
+      <c r="G44" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J44" s="12"/>
-      <c r="K44" s="49" t="n">
-        <v>3</v>
+      <c r="K44" s="50" t="n">
+        <v>18</v>
       </c>
       <c r="L44" s="12"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="12"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="25"/>
       <c r="O44" s="45" t="n">
-        <v>0.1</v>
+        <v>0.007</v>
       </c>
       <c r="P44" s="25"/>
       <c r="Q44" s="46" t="n">
-        <f aca="false">K44*O44</f>
-        <v>0.3</v>
+        <f aca="false">K44*O44*5</f>
+        <v>0.63</v>
+      </c>
+      <c r="R44" s="25"/>
+      <c r="S44" s="45" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="T44" s="25"/>
+      <c r="U44" s="46" t="n">
+        <f aca="false">K44*S44*10</f>
+        <v>1.26</v>
+      </c>
+      <c r="V44" s="25"/>
+      <c r="W44" s="45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X44" s="47" t="n">
+        <f aca="false">K44*W44</f>
+        <v>1.8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="47" t="s">
-        <v>115</v>
+      <c r="A45" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="48" t="s">
-        <v>116</v>
+      <c r="C45" s="49" t="s">
+        <v>118</v>
       </c>
       <c r="D45" s="12"/>
-      <c r="E45" s="47" t="s">
-        <v>117</v>
+      <c r="E45" s="48" t="s">
+        <v>123</v>
       </c>
       <c r="F45" s="12"/>
-      <c r="G45" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="50" t="s">
-        <v>29</v>
+      <c r="G45" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="50"/>
+      <c r="I45" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J45" s="12"/>
-      <c r="K45" s="49" t="n">
-        <v>1</v>
+      <c r="K45" s="50" t="n">
+        <v>19</v>
       </c>
       <c r="L45" s="12"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="12"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="25"/>
       <c r="O45" s="45" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="P45" s="25"/>
       <c r="Q45" s="46" t="n">
-        <f aca="false">K45*O45</f>
+        <f aca="false">K45*O45*5</f>
+        <v>1.9</v>
+      </c>
+      <c r="R45" s="25"/>
+      <c r="S45" s="45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T45" s="25"/>
+      <c r="U45" s="46" t="n">
+        <f aca="false">K45*S45*10</f>
+        <v>3.8</v>
+      </c>
+      <c r="V45" s="25"/>
+      <c r="W45" s="45" t="n">
         <v>0.1</v>
       </c>
+      <c r="X45" s="47" t="n">
+        <f aca="false">K45*W45</f>
+        <v>1.9</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="48" t="s">
-        <v>116</v>
-      </c>
       <c r="D46" s="12"/>
-      <c r="E46" s="47" t="s">
-        <v>119</v>
+      <c r="E46" s="48" t="s">
+        <v>125</v>
       </c>
       <c r="F46" s="12"/>
-      <c r="G46" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="50" t="s">
-        <v>29</v>
+      <c r="G46" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J46" s="12"/>
-      <c r="K46" s="49" t="n">
-        <v>1</v>
+      <c r="K46" s="50" t="n">
+        <v>3</v>
       </c>
       <c r="L46" s="12"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="12"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="25"/>
       <c r="O46" s="45" t="n">
-        <v>0.1</v>
+        <v>0.017</v>
       </c>
       <c r="P46" s="25"/>
       <c r="Q46" s="46" t="n">
-        <f aca="false">K46*O46</f>
+        <f aca="false">K46*O46*5</f>
+        <v>0.255</v>
+      </c>
+      <c r="R46" s="25"/>
+      <c r="S46" s="45" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="T46" s="25"/>
+      <c r="U46" s="46" t="n">
+        <f aca="false">K46*S46*10</f>
+        <v>0.51</v>
+      </c>
+      <c r="V46" s="25"/>
+      <c r="W46" s="45" t="n">
         <v>0.1</v>
       </c>
+      <c r="X46" s="47" t="n">
+        <f aca="false">K46*W46</f>
+        <v>0.3</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="47" t="s">
-        <v>120</v>
+      <c r="A47" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="B47" s="12"/>
-      <c r="C47" s="48" t="s">
-        <v>116</v>
+      <c r="C47" s="49" t="s">
+        <v>127</v>
       </c>
       <c r="D47" s="12"/>
-      <c r="E47" s="47" t="s">
-        <v>121</v>
+      <c r="E47" s="48" t="s">
+        <v>128</v>
       </c>
       <c r="F47" s="12"/>
-      <c r="G47" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="50" t="s">
-        <v>29</v>
+      <c r="G47" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J47" s="12"/>
-      <c r="K47" s="49" t="n">
+      <c r="K47" s="50" t="n">
         <v>1</v>
       </c>
       <c r="L47" s="12"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="12"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="25"/>
       <c r="O47" s="45" t="n">
         <v>0.1</v>
       </c>
       <c r="P47" s="25"/>
       <c r="Q47" s="46" t="n">
-        <f aca="false">K47*O47</f>
+        <f aca="false">K47*O47*5</f>
+        <v>0.5</v>
+      </c>
+      <c r="R47" s="25"/>
+      <c r="S47" s="45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T47" s="25"/>
+      <c r="U47" s="46" t="n">
+        <f aca="false">K47*S47*10</f>
+        <v>0.2</v>
+      </c>
+      <c r="V47" s="25"/>
+      <c r="W47" s="45" t="n">
         <v>0.1</v>
       </c>
+      <c r="X47" s="47" t="n">
+        <f aca="false">K47*W47</f>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="47" t="s">
-        <v>122</v>
+      <c r="A48" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="B48" s="12"/>
-      <c r="C48" s="48" t="s">
-        <v>123</v>
+      <c r="C48" s="49" t="s">
+        <v>127</v>
       </c>
       <c r="D48" s="12"/>
-      <c r="E48" s="47" t="s">
-        <v>124</v>
+      <c r="E48" s="48" t="s">
+        <v>130</v>
       </c>
       <c r="F48" s="12"/>
-      <c r="G48" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="49"/>
-      <c r="I48" s="50" t="s">
-        <v>29</v>
+      <c r="G48" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="50"/>
+      <c r="I48" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J48" s="12"/>
-      <c r="K48" s="49" t="n">
-        <v>3</v>
+      <c r="K48" s="50" t="n">
+        <v>1</v>
       </c>
       <c r="L48" s="12"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="12"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="25"/>
       <c r="O48" s="45" t="n">
         <v>0.1</v>
       </c>
       <c r="P48" s="25"/>
       <c r="Q48" s="46" t="n">
-        <f aca="false">K48*O48</f>
-        <v>0.3</v>
+        <f aca="false">K48*O48*5</f>
+        <v>0.5</v>
+      </c>
+      <c r="R48" s="25"/>
+      <c r="S48" s="45" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="T48" s="25"/>
+      <c r="U48" s="46" t="n">
+        <f aca="false">K48*S48*10</f>
+        <v>0.17</v>
+      </c>
+      <c r="V48" s="25"/>
+      <c r="W48" s="45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X48" s="47" t="n">
+        <f aca="false">K48*W48</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="47" t="s">
-        <v>125</v>
+      <c r="A49" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="B49" s="12"/>
-      <c r="C49" s="48" t="s">
-        <v>126</v>
+      <c r="C49" s="49" t="s">
+        <v>127</v>
       </c>
       <c r="D49" s="12"/>
-      <c r="E49" s="47" t="s">
-        <v>127</v>
+      <c r="E49" s="48" t="s">
+        <v>132</v>
       </c>
       <c r="F49" s="12"/>
-      <c r="G49" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49" t="s">
-        <v>29</v>
+      <c r="G49" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="50"/>
+      <c r="I49" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J49" s="12"/>
-      <c r="K49" s="49" t="n">
+      <c r="K49" s="50" t="n">
         <v>1</v>
       </c>
       <c r="L49" s="12"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="45"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="45" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P49" s="25"/>
       <c r="Q49" s="46" t="n">
-        <f aca="false">K49*O49</f>
-        <v>0</v>
+        <f aca="false">K49*O49*5</f>
+        <v>0.5</v>
+      </c>
+      <c r="R49" s="25"/>
+      <c r="S49" s="45" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="T49" s="25"/>
+      <c r="U49" s="46" t="n">
+        <f aca="false">K49*S49*10</f>
+        <v>0.17</v>
+      </c>
+      <c r="V49" s="25"/>
+      <c r="W49" s="45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X49" s="47" t="n">
+        <f aca="false">K49*W49</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="47" t="s">
-        <v>128</v>
+      <c r="A50" s="48" t="s">
+        <v>133</v>
       </c>
       <c r="B50" s="12"/>
-      <c r="C50" s="48" t="s">
-        <v>129</v>
+      <c r="C50" s="49" t="s">
+        <v>134</v>
       </c>
       <c r="D50" s="12"/>
-      <c r="E50" s="47" t="s">
-        <v>130</v>
+      <c r="E50" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="F50" s="12"/>
-      <c r="G50" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
+      <c r="G50" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="50"/>
+      <c r="I50" s="51" t="s">
+        <v>33</v>
+      </c>
       <c r="J50" s="12"/>
-      <c r="K50" s="49" t="n">
-        <v>1</v>
+      <c r="K50" s="50" t="n">
+        <v>3</v>
       </c>
       <c r="L50" s="12"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="45"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="45" t="n">
+        <v>0.017</v>
+      </c>
       <c r="P50" s="25"/>
       <c r="Q50" s="46" t="n">
-        <f aca="false">K50*O50</f>
-        <v>0</v>
+        <f aca="false">K50*O50*5</f>
+        <v>0.255</v>
+      </c>
+      <c r="R50" s="25"/>
+      <c r="S50" s="45" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="T50" s="25"/>
+      <c r="U50" s="46" t="n">
+        <f aca="false">K50*S50*10</f>
+        <v>0.51</v>
+      </c>
+      <c r="V50" s="25"/>
+      <c r="W50" s="45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X50" s="47" t="n">
+        <f aca="false">K50*W50</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="47" t="s">
-        <v>131</v>
+      <c r="A51" s="48" t="s">
+        <v>136</v>
       </c>
       <c r="B51" s="12"/>
-      <c r="C51" s="48" t="s">
-        <v>132</v>
+      <c r="C51" s="49" t="s">
+        <v>137</v>
       </c>
       <c r="D51" s="12"/>
-      <c r="E51" s="47" t="s">
-        <v>133</v>
+      <c r="E51" s="48" t="s">
+        <v>138</v>
       </c>
       <c r="F51" s="12"/>
-      <c r="G51" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="49"/>
-      <c r="I51" s="50" t="s">
-        <v>29</v>
+      <c r="G51" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="50"/>
+      <c r="I51" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J51" s="12"/>
-      <c r="K51" s="49" t="n">
-        <v>2</v>
+      <c r="K51" s="50" t="n">
+        <v>6</v>
       </c>
       <c r="L51" s="12"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="45"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="45" t="n">
+        <v>0.202</v>
+      </c>
       <c r="P51" s="25"/>
       <c r="Q51" s="46" t="n">
-        <f aca="false">K51*O51</f>
-        <v>0</v>
+        <f aca="false">K51*O51*5</f>
+        <v>6.06</v>
+      </c>
+      <c r="R51" s="25"/>
+      <c r="S51" s="45" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="T51" s="25"/>
+      <c r="U51" s="46" t="n">
+        <f aca="false">K51*S51*10</f>
+        <v>10.44</v>
+      </c>
+      <c r="V51" s="25"/>
+      <c r="W51" s="45" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X51" s="47" t="n">
+        <f aca="false">K51*W51</f>
+        <v>1.26</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="47" t="s">
-        <v>134</v>
+      <c r="A52" s="48" t="s">
+        <v>139</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="48" t="s">
-        <v>135</v>
+      <c r="C52" s="49" t="s">
+        <v>140</v>
       </c>
       <c r="D52" s="12"/>
-      <c r="E52" s="47" t="s">
-        <v>136</v>
+      <c r="E52" s="48" t="s">
+        <v>141</v>
       </c>
       <c r="F52" s="12"/>
-      <c r="G52" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="49"/>
-      <c r="I52" s="50" t="s">
-        <v>29</v>
+      <c r="G52" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="50"/>
+      <c r="I52" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J52" s="12"/>
-      <c r="K52" s="49" t="n">
+      <c r="K52" s="50" t="n">
         <v>1</v>
       </c>
       <c r="L52" s="12"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="45"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="45" t="n">
+        <v>0.59</v>
+      </c>
       <c r="P52" s="25"/>
       <c r="Q52" s="46" t="n">
-        <f aca="false">K52*O52</f>
-        <v>0</v>
+        <f aca="false">K52*O52*5</f>
+        <v>2.95</v>
+      </c>
+      <c r="R52" s="25"/>
+      <c r="S52" s="45" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="T52" s="25"/>
+      <c r="U52" s="46" t="n">
+        <f aca="false">K52*S52*10</f>
+        <v>4.78</v>
+      </c>
+      <c r="V52" s="25"/>
+      <c r="W52" s="45" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="X52" s="47" t="n">
+        <f aca="false">K52*W52</f>
+        <v>0.59</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="47" t="s">
-        <v>137</v>
+      <c r="A53" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="B53" s="12"/>
-      <c r="C53" s="48" t="s">
-        <v>138</v>
+      <c r="C53" s="49" t="s">
+        <v>143</v>
       </c>
       <c r="D53" s="12"/>
-      <c r="E53" s="47" t="s">
-        <v>133</v>
+      <c r="E53" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="F53" s="12"/>
-      <c r="G53" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="49"/>
-      <c r="I53" s="50" t="s">
-        <v>29</v>
+      <c r="G53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="50"/>
+      <c r="I53" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J53" s="12"/>
-      <c r="K53" s="49" t="n">
+      <c r="K53" s="50" t="n">
         <v>2</v>
       </c>
       <c r="L53" s="12"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="12"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="25"/>
       <c r="O53" s="45" t="n">
-        <v>1.44</v>
+        <v>0.398</v>
       </c>
       <c r="P53" s="25"/>
       <c r="Q53" s="46" t="n">
-        <f aca="false">K53*O53</f>
-        <v>2.88</v>
+        <f aca="false">K53*O53*5</f>
+        <v>3.98</v>
+      </c>
+      <c r="R53" s="25"/>
+      <c r="S53" s="45" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="T53" s="25"/>
+      <c r="U53" s="46" t="n">
+        <f aca="false">K53*S53*10</f>
+        <v>7.96</v>
+      </c>
+      <c r="V53" s="25"/>
+      <c r="W53" s="45" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="X53" s="47" t="n">
+        <f aca="false">K53*W53</f>
+        <v>0.94</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="47" t="s">
-        <v>139</v>
+      <c r="A54" s="48" t="s">
+        <v>145</v>
       </c>
       <c r="B54" s="12"/>
-      <c r="C54" s="48" t="s">
-        <v>140</v>
+      <c r="C54" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="D54" s="12"/>
-      <c r="E54" s="47" t="s">
-        <v>141</v>
+      <c r="E54" s="48" t="s">
+        <v>147</v>
       </c>
       <c r="F54" s="12"/>
-      <c r="G54" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" s="49"/>
-      <c r="I54" s="50" t="s">
-        <v>29</v>
+      <c r="G54" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="50"/>
+      <c r="I54" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J54" s="12"/>
-      <c r="K54" s="49" t="n">
-        <v>3</v>
+      <c r="K54" s="50" t="n">
+        <v>1</v>
       </c>
       <c r="L54" s="12"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="45"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="45" t="n">
+        <v>0.48</v>
+      </c>
       <c r="P54" s="25"/>
       <c r="Q54" s="46" t="n">
-        <f aca="false">K54*O54</f>
-        <v>0</v>
+        <f aca="false">K54*O54*5</f>
+        <v>2.4</v>
+      </c>
+      <c r="R54" s="25"/>
+      <c r="S54" s="45" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="T54" s="25"/>
+      <c r="U54" s="46" t="n">
+        <f aca="false">K54*S54*10</f>
+        <v>3.63</v>
+      </c>
+      <c r="V54" s="25"/>
+      <c r="W54" s="45" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="X54" s="47" t="n">
+        <f aca="false">K54*W54</f>
+        <v>0.48</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="47" t="s">
-        <v>142</v>
+      <c r="A55" s="48" t="s">
+        <v>148</v>
       </c>
       <c r="B55" s="12"/>
-      <c r="C55" s="48" t="s">
-        <v>143</v>
+      <c r="C55" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="D55" s="12"/>
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="48" t="s">
         <v>144</v>
       </c>
       <c r="F55" s="12"/>
-      <c r="G55" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" s="49"/>
-      <c r="I55" s="50" t="s">
-        <v>29</v>
+      <c r="G55" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="50"/>
+      <c r="I55" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="J55" s="12"/>
-      <c r="K55" s="49" t="n">
+      <c r="K55" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" s="12"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="46" t="n">
+        <f aca="false">K55*O55*5</f>
+        <v>13</v>
+      </c>
+      <c r="R55" s="25"/>
+      <c r="S55" s="45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T55" s="25"/>
+      <c r="U55" s="46" t="n">
+        <f aca="false">K55*S55*10</f>
+        <v>26</v>
+      </c>
+      <c r="V55" s="25"/>
+      <c r="W55" s="45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X55" s="47" t="n">
+        <f aca="false">K55*W55</f>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="50"/>
+      <c r="I56" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="12"/>
+      <c r="K56" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="L56" s="12"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="45" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="46" t="n">
+        <f aca="false">K56*O56*5</f>
+        <v>3.945</v>
+      </c>
+      <c r="R56" s="25"/>
+      <c r="S56" s="45" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="T56" s="25"/>
+      <c r="U56" s="46" t="n">
+        <f aca="false">K56*S56*10</f>
+        <v>7.89</v>
+      </c>
+      <c r="V56" s="25"/>
+      <c r="W56" s="45" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X56" s="47" t="n">
+        <f aca="false">K56*W56</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" s="50"/>
+      <c r="I57" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" s="12"/>
+      <c r="K57" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="L55" s="12"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="51" t="n">
+      <c r="L57" s="12"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="52" t="n">
         <v>1.05</v>
       </c>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="51" t="n">
-        <f aca="false">K55*O55</f>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="46" t="n">
+        <f aca="false">K57*O57*5</f>
+        <v>5.25</v>
+      </c>
+      <c r="R57" s="25"/>
+      <c r="S57" s="52" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="T57" s="25"/>
+      <c r="U57" s="46" t="n">
+        <f aca="false">K57*S57*10</f>
+        <v>9.45</v>
+      </c>
+      <c r="V57" s="25"/>
+      <c r="W57" s="52" t="n">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="H56" s="49"/>
-      <c r="I56" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="J56" s="12"/>
-      <c r="K56" s="49" t="n">
+      <c r="X57" s="47" t="n">
+        <f aca="false">K57*W57</f>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H58" s="50"/>
+      <c r="I58" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="J58" s="12"/>
+      <c r="K58" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="L56" s="12"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="51" t="n">
+      <c r="L58" s="12"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="52" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="46" t="n">
+        <f aca="false">K58*O58*5</f>
+        <v>76.4</v>
+      </c>
+      <c r="R58" s="25"/>
+      <c r="S58" s="52" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="T58" s="25"/>
+      <c r="U58" s="46" t="n">
+        <f aca="false">K58*S58*10</f>
+        <v>148.1</v>
+      </c>
+      <c r="V58" s="25"/>
+      <c r="W58" s="52" t="n">
         <v>15.75</v>
       </c>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="51" t="n">
-        <f aca="false">K56*O56</f>
+      <c r="X58" s="47" t="n">
+        <f aca="false">K58*W58</f>
         <v>15.75</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="53"/>
-      <c r="C57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="54"/>
-      <c r="O57" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="57" t="n">
-        <f aca="false">SUM(Q14:Q56)</f>
-        <v>44.63</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q58" s="58"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="61" t="n">
-        <f aca="false">Q57</f>
-        <v>44.63</v>
-      </c>
-      <c r="R59" s="2"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q63" s="1"/>
+    <row r="59" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="H59" s="50"/>
+      <c r="I59" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="J59" s="12"/>
+      <c r="K59" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" s="12"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="52" t="n">
+        <v>18</v>
+      </c>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="46" t="n">
+        <f aca="false">K58*O59*5</f>
+        <v>90</v>
+      </c>
+      <c r="R59" s="25"/>
+      <c r="S59" s="52" t="n">
+        <v>18</v>
+      </c>
+      <c r="T59" s="25"/>
+      <c r="U59" s="46" t="n">
+        <f aca="false">K59*10*S59</f>
+        <v>180</v>
+      </c>
+      <c r="V59" s="25"/>
+      <c r="W59" s="52" t="n">
+        <f aca="false">18</f>
+        <v>18</v>
+      </c>
+      <c r="X59" s="47" t="n">
+        <f aca="false">K59*W59</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="50"/>
+      <c r="I60" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="12"/>
+      <c r="K60" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="12"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="52" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="46" t="n">
+        <f aca="false">K60*O60*5</f>
+        <v>10.15</v>
+      </c>
+      <c r="R60" s="25"/>
+      <c r="S60" s="52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T60" s="25"/>
+      <c r="U60" s="46" t="n">
+        <f aca="false">K60*S60*10</f>
+        <v>19</v>
+      </c>
+      <c r="V60" s="25"/>
+      <c r="W60" s="52" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="X60" s="47" t="n">
+        <f aca="false">K60*W60</f>
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="50"/>
+      <c r="I61" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="12"/>
+      <c r="K61" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="12"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="52" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="46" t="n">
+        <f aca="false">K61*O61*5</f>
+        <v>3.1</v>
+      </c>
+      <c r="R61" s="25"/>
+      <c r="S61" s="52" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="T61" s="25"/>
+      <c r="U61" s="46" t="n">
+        <f aca="false">K61*S61*10</f>
+        <v>5.26</v>
+      </c>
+      <c r="V61" s="25"/>
+      <c r="W61" s="52" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="X61" s="47" t="n">
+        <f aca="false">K61*W61</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" s="50"/>
+      <c r="I62" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="12"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="46" t="n">
+        <f aca="false">K62*O62*5</f>
+        <v>2.5</v>
+      </c>
+      <c r="R62" s="25"/>
+      <c r="S62" s="52" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="T62" s="25"/>
+      <c r="U62" s="46" t="n">
+        <f aca="false">K62*S62*10</f>
+        <v>2.38</v>
+      </c>
+      <c r="V62" s="25"/>
+      <c r="W62" s="52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X62" s="47" t="n">
+        <f aca="false">K62*W62</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="H63" s="50"/>
+      <c r="I63" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="J63" s="12"/>
+      <c r="K63" s="50" t="n">
+        <v>4</v>
+      </c>
+      <c r="L63" s="12"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="46" t="n">
+        <f aca="false">K63*3*O63</f>
+        <v>60</v>
+      </c>
+      <c r="R63" s="25"/>
+      <c r="S63" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" s="25"/>
+      <c r="U63" s="46" t="n">
+        <f aca="false">K63*10*S63</f>
+        <v>200</v>
+      </c>
+      <c r="V63" s="25"/>
+      <c r="W63" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="X63" s="47" t="n">
+        <f aca="false">K63*W63</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q64" s="1"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="58" t="n">
+        <f aca="false">SUM(Q14:Q63)</f>
+        <v>441.765</v>
+      </c>
+      <c r="R64" s="56"/>
+      <c r="S64" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="T64" s="56"/>
+      <c r="U64" s="59" t="n">
+        <f aca="false">SUM(U14:U63)</f>
+        <v>923.528</v>
+      </c>
+      <c r="V64" s="56"/>
+      <c r="W64" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="X64" s="60" t="n">
+        <f aca="false">SUM(X14:X63)</f>
+        <v>104.972</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q65" s="1"/>
+      <c r="O65" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q65" s="58" t="n">
+        <f aca="false">SUM(Q15:Q63)/5</f>
+        <v>84.753</v>
+      </c>
+      <c r="S65" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="U65" s="58" t="n">
+        <f aca="false">SUM(U15:U63)/10</f>
+        <v>88.7528</v>
+      </c>
+      <c r="W65" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="X65" s="60" t="n">
+        <f aca="false">SUM(X14:X63)</f>
+        <v>104.972</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q66" s="1"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="61"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="61"/>
+      <c r="X66" s="62"/>
+      <c r="Y66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q67" s="1"/>
+      <c r="X67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q68" s="1"/>
+      <c r="X68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q69" s="1"/>
+      <c r="X69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q70" s="1"/>
+      <c r="X70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q71" s="1"/>
+      <c r="X71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q72" s="1"/>
+      <c r="X72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q73" s="1"/>
+      <c r="X73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q74" s="1"/>
+      <c r="X74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q75" s="1"/>
+      <c r="X75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q76" s="1"/>
+      <c r="X76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q77" s="1"/>
+      <c r="X77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q78" s="1"/>
+      <c r="X78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q79" s="1"/>
+      <c r="X79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q80" s="1"/>
+      <c r="X80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q81" s="1"/>
+      <c r="X81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q82" s="1"/>
+      <c r="X82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q83" s="1"/>
+      <c r="X83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q84" s="1"/>
+      <c r="X84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q85" s="1"/>
+      <c r="X85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q86" s="1"/>
+      <c r="X86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q87" s="1"/>
+      <c r="X87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q88" s="1"/>
+      <c r="X88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q89" s="1"/>
+      <c r="X89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q90" s="1"/>
+      <c r="X90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q91" s="1"/>
+      <c r="X91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q92" s="1"/>
+      <c r="X92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q93" s="1"/>
+      <c r="X93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q94" s="1"/>
+      <c r="X94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q95" s="1"/>
+      <c r="X95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q96" s="1"/>
+      <c r="X96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q97" s="1"/>
+      <c r="X97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q98" s="1"/>
+      <c r="X98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q99" s="1"/>
+      <c r="X99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q100" s="1"/>
+      <c r="X100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q101" s="1"/>
+      <c r="X101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q102" s="1"/>
+      <c r="X102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q103" s="1"/>
+      <c r="X103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q104" s="1"/>
+      <c r="X104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q105" s="1"/>
+      <c r="X105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q106" s="1"/>
+      <c r="X106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q107" s="1"/>
+      <c r="X107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q108" s="1"/>
+      <c r="X108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q109" s="1"/>
+      <c r="X109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q110" s="1"/>
+      <c r="X110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q111" s="1"/>
+      <c r="X111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q112" s="1"/>
+      <c r="X112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q113" s="1"/>
+      <c r="X113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q114" s="1"/>
+      <c r="X114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q115" s="1"/>
+      <c r="X115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q116" s="1"/>
+      <c r="X116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q117" s="1"/>
+      <c r="X117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q118" s="1"/>
+      <c r="X118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q119" s="1"/>
+      <c r="X119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q120" s="1"/>
+      <c r="X120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q121" s="1"/>
+      <c r="X121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q122" s="1"/>
+      <c r="X122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q123" s="1"/>
+      <c r="X123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q124" s="1"/>
+      <c r="X124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q125" s="1"/>
+      <c r="X125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q126" s="1"/>
+      <c r="X126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q127" s="1"/>
+      <c r="X127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q128" s="1"/>
+      <c r="X128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q129" s="1"/>
+      <c r="X129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q130" s="1"/>
+      <c r="X130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q131" s="1"/>
+      <c r="X131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q132" s="1"/>
+      <c r="X132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q133" s="1"/>
+      <c r="X133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q134" s="1"/>
+      <c r="X134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q135" s="1"/>
+      <c r="X135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q136" s="1"/>
+      <c r="X136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q137" s="1"/>
+      <c r="X137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q138" s="1"/>
+      <c r="X138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q139" s="1"/>
+      <c r="X139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q140" s="1"/>
+      <c r="X140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q141" s="1"/>
+      <c r="X141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q142" s="1"/>
+      <c r="X142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q143" s="1"/>
+      <c r="X143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q144" s="1"/>
+      <c r="X144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q145" s="1"/>
+      <c r="X145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q146" s="1"/>
+      <c r="X146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q147" s="1"/>
+      <c r="X147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q148" s="1"/>
+      <c r="X148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q149" s="1"/>
+      <c r="X149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q150" s="1"/>
+      <c r="X150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q151" s="1"/>
+      <c r="X151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q152" s="1"/>
+      <c r="X152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q153" s="1"/>
+      <c r="X153" s="1"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q154" s="1"/>
+      <c r="X154" s="1"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q155" s="1"/>
+      <c r="X155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q156" s="1"/>
+      <c r="X156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q157" s="1"/>
+      <c r="X157" s="1"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q158" s="1"/>
+      <c r="X158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q159" s="1"/>
+      <c r="X159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q160" s="1"/>
+      <c r="X160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q161" s="1"/>
+      <c r="X161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q162" s="1"/>
+      <c r="X162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q163" s="1"/>
+      <c r="X163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q164" s="1"/>
+      <c r="X164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q165" s="1"/>
+      <c r="X165" s="1"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X166" s="1"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X167" s="1"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X168" s="1"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X169" s="1"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X170" s="1"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X171" s="1"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X172" s="1"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X173" s="1"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X174" s="1"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X175" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
+  <mergeCells count="2">
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A8:X8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I14" r:id="rId1" display="MOUSER"/>
@@ -3383,34 +4800,47 @@
     <hyperlink ref="I19" r:id="rId6" display="MOUSER"/>
     <hyperlink ref="I20" r:id="rId7" display="MOUSER"/>
     <hyperlink ref="I21" r:id="rId8" display="MOUSER"/>
-    <hyperlink ref="I23" r:id="rId9" display="MOUSER"/>
-    <hyperlink ref="I24" r:id="rId10" display="MOUSER"/>
-    <hyperlink ref="I25" r:id="rId11" display="MOUSER"/>
-    <hyperlink ref="I26" r:id="rId12" display="MOUSER"/>
-    <hyperlink ref="I27" r:id="rId13" display="MOUSER"/>
-    <hyperlink ref="I28" r:id="rId14" display="MOUSER"/>
-    <hyperlink ref="I29" r:id="rId15" display="MOUSER"/>
-    <hyperlink ref="I30" r:id="rId16" display="MOUSER"/>
-    <hyperlink ref="I32" r:id="rId17" display="MOUSER"/>
-    <hyperlink ref="I33" r:id="rId18" display="MOUSER"/>
-    <hyperlink ref="I34" r:id="rId19" display="MOUSER"/>
-    <hyperlink ref="I38" r:id="rId20" display="MOUSER"/>
-    <hyperlink ref="I39" r:id="rId21" display="MOUSER"/>
-    <hyperlink ref="I40" r:id="rId22" display="MOUSER"/>
-    <hyperlink ref="I41" r:id="rId23" display="MOUSER"/>
-    <hyperlink ref="I42" r:id="rId24" display="MOUSER"/>
-    <hyperlink ref="I43" r:id="rId25" display="MOUSER"/>
-    <hyperlink ref="I44" r:id="rId26" display="MOUSER"/>
-    <hyperlink ref="I45" r:id="rId27" display="MOUSER"/>
-    <hyperlink ref="I46" r:id="rId28" display="MOUSER"/>
-    <hyperlink ref="I47" r:id="rId29" display="MOUSER"/>
-    <hyperlink ref="I48" r:id="rId30" display="MOUSER"/>
-    <hyperlink ref="I51" r:id="rId31" display="MOUSER"/>
-    <hyperlink ref="I52" r:id="rId32" display="MOUSER"/>
-    <hyperlink ref="I53" r:id="rId33" display="MOUSER"/>
-    <hyperlink ref="I54" r:id="rId34" display="MOUSER"/>
-    <hyperlink ref="I55" r:id="rId35" display="MOUSER"/>
-    <hyperlink ref="I56" r:id="rId36" display="RS"/>
+    <hyperlink ref="I22" r:id="rId9" display="Distrelec"/>
+    <hyperlink ref="I23" r:id="rId10" display="Distrelec"/>
+    <hyperlink ref="I24" r:id="rId11" display="MOUSER"/>
+    <hyperlink ref="I25" r:id="rId12" display="MOUSER"/>
+    <hyperlink ref="I26" r:id="rId13" display="MOUSER"/>
+    <hyperlink ref="I27" r:id="rId14" display="MOUSER"/>
+    <hyperlink ref="I28" r:id="rId15" display="MOUSER"/>
+    <hyperlink ref="I29" r:id="rId16" display="MOUSER"/>
+    <hyperlink ref="I30" r:id="rId17" display="MOUSER"/>
+    <hyperlink ref="I31" r:id="rId18" display="MOUSER"/>
+    <hyperlink ref="I32" r:id="rId19" display="Distrelec"/>
+    <hyperlink ref="I33" r:id="rId20" display="Distrelec"/>
+    <hyperlink ref="I34" r:id="rId21" display="MOUSER"/>
+    <hyperlink ref="I35" r:id="rId22" display="MOUSER"/>
+    <hyperlink ref="I36" r:id="rId23" display="MOUSER"/>
+    <hyperlink ref="I37" r:id="rId24" display="MOUSER"/>
+    <hyperlink ref="I38" r:id="rId25" display="MOUSER"/>
+    <hyperlink ref="I39" r:id="rId26" display="MOUSER"/>
+    <hyperlink ref="I40" r:id="rId27" display="MOUSER"/>
+    <hyperlink ref="I41" r:id="rId28" display="MOUSER"/>
+    <hyperlink ref="I42" r:id="rId29" display="MOUSER"/>
+    <hyperlink ref="I43" r:id="rId30" display="MOUSER"/>
+    <hyperlink ref="I44" r:id="rId31" display="MOUSER"/>
+    <hyperlink ref="I45" r:id="rId32" display="MOUSER"/>
+    <hyperlink ref="I46" r:id="rId33" display="MOUSER"/>
+    <hyperlink ref="I47" r:id="rId34" display="MOUSER"/>
+    <hyperlink ref="I48" r:id="rId35" display="MOUSER"/>
+    <hyperlink ref="I49" r:id="rId36" display="MOUSER"/>
+    <hyperlink ref="I50" r:id="rId37" display="MOUSER"/>
+    <hyperlink ref="I51" r:id="rId38" display="MOUSER"/>
+    <hyperlink ref="I52" r:id="rId39" display="MOUSER"/>
+    <hyperlink ref="I53" r:id="rId40" display="MOUSER"/>
+    <hyperlink ref="I54" r:id="rId41" display="MOUSER"/>
+    <hyperlink ref="I55" r:id="rId42" display="MOUSER"/>
+    <hyperlink ref="I56" r:id="rId43" display="MOUSER"/>
+    <hyperlink ref="I57" r:id="rId44" display="MOUSER"/>
+    <hyperlink ref="I58" r:id="rId45" display="RS"/>
+    <hyperlink ref="I59" r:id="rId46" display="Reichelt"/>
+    <hyperlink ref="I60" r:id="rId47" display="MOUSER"/>
+    <hyperlink ref="I61" r:id="rId48" display="MOUSER"/>
+    <hyperlink ref="I62" r:id="rId49" display="MOUSER"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3418,6 +4848,918 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ125"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="0.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="1.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="1.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="1.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="15" style="1" width="11.23"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="43" t="n">
+        <f aca="false">SUM(C2,I2)</f>
+        <v>5</v>
+      </c>
+      <c r="M2" s="43" t="n">
+        <f aca="false">SUM(E2,I2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="O2" s="43" t="n">
+        <f aca="false">SUM(G2,I2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="42" t="n">
+        <f aca="false">C2*3</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="41" t="n">
+        <f aca="false">E2*3</f>
+        <v>7.5</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="43" t="n">
+        <f aca="false">3*G2</f>
+        <v>4.5</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="63" t="n">
+        <f aca="false">I2*3</f>
+        <v>3</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="43" t="n">
+        <f aca="false">SUM(C3,I3)</f>
+        <v>15</v>
+      </c>
+      <c r="M3" s="43" t="n">
+        <f aca="false">SUM(E3,I3)</f>
+        <v>10.5</v>
+      </c>
+      <c r="O3" s="43" t="n">
+        <f aca="false">SUM(G3,I3)</f>
+        <v>7.5</v>
+      </c>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="42" t="n">
+        <f aca="false">C2*5</f>
+        <v>20</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="41" t="n">
+        <f aca="false">E2*5</f>
+        <v>12.5</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="43" t="n">
+        <f aca="false">G2*5</f>
+        <v>7.5</v>
+      </c>
+      <c r="H4" s="43"/>
+      <c r="I4" s="63" t="n">
+        <f aca="false">I2*5</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="43" t="n">
+        <f aca="false">SUM(C4,I4)</f>
+        <v>25</v>
+      </c>
+      <c r="M4" s="43" t="n">
+        <f aca="false">SUM(E4,I4)</f>
+        <v>17.5</v>
+      </c>
+      <c r="O4" s="43" t="n">
+        <f aca="false">SUM(G4,I4)</f>
+        <v>12.5</v>
+      </c>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="AMJ6" s="0"/>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="AMJ9" s="0"/>
+    </row>
+    <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="AMJ23" s="0"/>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="AMJ24" s="0"/>
+    </row>
+    <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="AMJ25" s="0"/>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="AMJ26" s="0"/>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="AMJ27" s="0"/>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="AMJ28" s="0"/>
+    </row>
+    <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="AMJ29" s="0"/>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="AMJ30" s="0"/>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="AMJ32" s="0"/>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="AMJ33" s="0"/>
+    </row>
+    <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="AMJ34" s="0"/>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="AMJ35" s="0"/>
+    </row>
+    <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="AMJ36" s="0"/>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="AMJ37" s="0"/>
+    </row>
+    <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="AMJ38" s="0"/>
+    </row>
+    <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="AMJ39" s="0"/>
+    </row>
+    <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="AMJ40" s="0"/>
+    </row>
+    <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="AMJ41" s="0"/>
+    </row>
+    <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="AMJ42" s="0"/>
+    </row>
+    <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="AMJ43" s="0"/>
+    </row>
+    <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="AMJ44" s="0"/>
+    </row>
+    <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="AMJ45" s="0"/>
+    </row>
+    <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="AMJ46" s="0"/>
+    </row>
+    <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="AMJ47" s="0"/>
+    </row>
+    <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="AMJ48" s="0"/>
+    </row>
+    <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="AMJ49" s="0"/>
+    </row>
+    <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="AMJ50" s="0"/>
+    </row>
+    <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="AMJ51" s="0"/>
+    </row>
+    <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="AMJ52" s="0"/>
+    </row>
+    <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="AMJ53" s="0"/>
+    </row>
+    <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="AMJ54" s="0"/>
+    </row>
+    <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="AMJ55" s="0"/>
+    </row>
+    <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="AMJ56" s="0"/>
+    </row>
+    <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="AMJ57" s="0"/>
+    </row>
+    <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="AMJ58" s="0"/>
+    </row>
+    <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="AMJ59" s="0"/>
+    </row>
+    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="AMJ60" s="0"/>
+    </row>
+    <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="AMJ61" s="0"/>
+    </row>
+    <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="AMJ62" s="0"/>
+    </row>
+    <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="AMJ63" s="0"/>
+    </row>
+    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="AMJ64" s="0"/>
+    </row>
+    <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="AMJ65" s="0"/>
+    </row>
+    <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="AMJ66" s="0"/>
+    </row>
+    <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="AMJ67" s="0"/>
+    </row>
+    <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="AMJ68" s="0"/>
+    </row>
+    <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="AMJ69" s="0"/>
+    </row>
+    <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="AMJ70" s="0"/>
+    </row>
+    <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="AMJ71" s="0"/>
+    </row>
+    <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="AMJ72" s="0"/>
+    </row>
+    <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="AMJ73" s="0"/>
+    </row>
+    <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="AMJ74" s="0"/>
+    </row>
+    <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="AMJ75" s="0"/>
+    </row>
+    <row r="76" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="AMJ76" s="0"/>
+    </row>
+    <row r="77" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="AMJ77" s="0"/>
+    </row>
+    <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="AMJ78" s="0"/>
+    </row>
+    <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="AMJ79" s="0"/>
+    </row>
+    <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="AMJ80" s="0"/>
+    </row>
+    <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="AMJ81" s="0"/>
+    </row>
+    <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="AMJ82" s="0"/>
+    </row>
+    <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="AMJ83" s="0"/>
+    </row>
+    <row r="84" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="AMJ84" s="0"/>
+    </row>
+    <row r="85" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="AMJ85" s="0"/>
+    </row>
+    <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="AMJ86" s="0"/>
+    </row>
+    <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="AMJ87" s="0"/>
+    </row>
+    <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="AMJ88" s="0"/>
+    </row>
+    <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="AMJ89" s="0"/>
+    </row>
+    <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="AMJ90" s="0"/>
+    </row>
+    <row r="91" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="AMJ91" s="0"/>
+    </row>
+    <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="AMJ92" s="0"/>
+    </row>
+    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="AMJ93" s="0"/>
+    </row>
+    <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="AMJ94" s="0"/>
+    </row>
+    <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="AMJ95" s="0"/>
+    </row>
+    <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="AMJ96" s="0"/>
+    </row>
+    <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="AMJ97" s="0"/>
+    </row>
+    <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="AMJ98" s="0"/>
+    </row>
+    <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="AMJ99" s="0"/>
+    </row>
+    <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="AMJ100" s="0"/>
+    </row>
+    <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="AMJ101" s="0"/>
+    </row>
+    <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="AMJ102" s="0"/>
+    </row>
+    <row r="103" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="AMJ103" s="0"/>
+    </row>
+    <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="AMJ104" s="0"/>
+    </row>
+    <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="AMJ105" s="0"/>
+    </row>
+    <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="AMJ106" s="0"/>
+    </row>
+    <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="AMJ107" s="0"/>
+    </row>
+    <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="AMJ108" s="0"/>
+    </row>
+    <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="AMJ109" s="0"/>
+    </row>
+    <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="AMJ110" s="0"/>
+    </row>
+    <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="AMJ111" s="0"/>
+    </row>
+    <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="AMJ112" s="0"/>
+    </row>
+    <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="AMJ113" s="0"/>
+    </row>
+    <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="AMJ114" s="0"/>
+    </row>
+    <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="AMJ115" s="0"/>
+    </row>
+    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="AMJ116" s="0"/>
+    </row>
+    <row r="117" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="AMJ117" s="0"/>
+    </row>
+    <row r="118" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="AMJ118" s="0"/>
+    </row>
+    <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="AMJ119" s="0"/>
+    </row>
+    <row r="120" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="AMJ120" s="0"/>
+    </row>
+    <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="AMJ121" s="0"/>
+    </row>
+    <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="AMJ122" s="0"/>
+    </row>
+    <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="AMJ123" s="0"/>
+    </row>
+    <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="AMJ124" s="0"/>
+    </row>
+    <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="AMJ125" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
